--- a/ANDE.xlsx
+++ b/ANDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF35AD57-ACA3-4674-BF78-9F9A90970B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2083EF10-515B-4FC8-A0DF-682F4F2CEFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19390" yWindow="5010" windowWidth="16130" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18410" yWindow="3950" windowWidth="16130" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>use for scripting</t>
   </si>
@@ -124,6 +124,111 @@
   </si>
   <si>
     <t>EPS - Diluated</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>LT Assets</t>
+  </si>
+  <si>
+    <t>Current Liab</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>LT Liab</t>
+  </si>
+  <si>
+    <t>Total Liab</t>
+  </si>
+  <si>
+    <t>Total Equity - The Anderson's Inc.</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>Liab+Equity</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Other Intangible</t>
+  </si>
+  <si>
+    <t>Right of use</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Short-term debt</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Customer prepay, def revenue</t>
+  </si>
+  <si>
+    <t>Commodity Deriv Liab - Current</t>
+  </si>
+  <si>
+    <t>Commodity Deriv Asset - Current</t>
+  </si>
+  <si>
+    <t>CPTLD</t>
+  </si>
+  <si>
+    <t>Accrued Expenses</t>
+  </si>
+  <si>
+    <t>LT Lease</t>
+  </si>
+  <si>
+    <t>LT Debt less CPLTD</t>
+  </si>
+  <si>
+    <t>Def income taxes</t>
+  </si>
+  <si>
+    <t>Other LT Liab</t>
+  </si>
+  <si>
+    <t>Common shares</t>
+  </si>
+  <si>
+    <t>Additional paid-in capital</t>
+  </si>
+  <si>
+    <t>Treasury shares</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Non-controlling interests</t>
+  </si>
+  <si>
+    <t>Accum other comprehensive income</t>
   </si>
 </sst>
 </file>
@@ -187,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,6 +304,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,15 +600,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357728C9-468B-45AD-9654-66B0177430FA}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -865,7 +974,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
-        <f t="shared" ref="C19:F19" si="3">F15/F17</f>
+        <f t="shared" ref="F19" si="3">F15/F17</f>
         <v>0.16447601084521984</v>
       </c>
     </row>
@@ -885,6 +994,1177 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="str">
+        <f>B2</f>
+        <v>Q123</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" ref="C34:O34" si="5">C2</f>
+        <v>Q223</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Q323</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Q423</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Q124</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Q224</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Q324</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Q424</v>
+      </c>
+      <c r="J34" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>xxx</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="5"/>
+        <v>2020</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="5"/>
+        <v>2021</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="5"/>
+        <v>2022</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="5"/>
+        <v>2023</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="5"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="6">
+        <v>70853</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <v>643854</v>
+      </c>
+      <c r="F36" s="6">
+        <v>283902</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1125071</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <v>762549</v>
+      </c>
+      <c r="F37" s="6">
+        <v>701706</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1551101</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>1166700</v>
+      </c>
+      <c r="F38" s="6">
+        <v>994543</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="6">
+        <v>222036</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
+        <v>178083</v>
+      </c>
+      <c r="F39" s="6">
+        <v>178623</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="6">
+        <v>81407</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <v>55777</v>
+      </c>
+      <c r="F40" s="6">
+        <v>55134</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="7">
+        <f>+SUM(B36:B40)</f>
+        <v>3050468</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" ref="C41:O41" si="6">+SUM(C36:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="6"/>
+        <v>2806963</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="6"/>
+        <v>2213908</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="6">
+        <v>129342</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6">
+        <v>127856</v>
+      </c>
+      <c r="F42" s="6">
+        <v>127856</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="6">
+        <v>95134</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <v>85579</v>
+      </c>
+      <c r="F43" s="6">
+        <v>80527</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="6">
+        <v>59209</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6">
+        <v>54234</v>
+      </c>
+      <c r="F44" s="6">
+        <v>52541</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="6">
+        <v>89174</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6">
+        <v>87010</v>
+      </c>
+      <c r="F45" s="6">
+        <v>97128</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6">
+        <v>678717</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
+        <v>693365</v>
+      </c>
+      <c r="F46" s="6">
+        <v>689113</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="7">
+        <f>+SUM(B42:B46)</f>
+        <v>1051576</v>
+      </c>
+      <c r="C47" s="7">
+        <f t="shared" ref="C47:O47" si="7">+SUM(C42:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="7"/>
+        <v>1048044</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="7"/>
+        <v>1047165</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="7">
+        <f>B47+B41</f>
+        <v>4102044</v>
+      </c>
+      <c r="C48" s="7">
+        <f t="shared" ref="C48:O48" si="8">C47+C41</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="8"/>
+        <v>3855007</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="8"/>
+        <v>3261073</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="10">
+        <v>638210</v>
+      </c>
+      <c r="E50" s="10">
+        <v>43106</v>
+      </c>
+      <c r="F50" s="10">
+        <v>10148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="10">
+        <v>768872</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1055473</v>
+      </c>
+      <c r="F51" s="10">
+        <v>625836</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="10">
+        <v>309546</v>
+      </c>
+      <c r="E52" s="10">
+        <v>187054</v>
+      </c>
+      <c r="F52" s="10">
+        <v>174651</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="10">
+        <v>107983</v>
+      </c>
+      <c r="E53" s="10">
+        <v>90849</v>
+      </c>
+      <c r="F53" s="10">
+        <v>67079</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="10">
+        <v>85567</v>
+      </c>
+      <c r="E54" s="10">
+        <v>27561</v>
+      </c>
+      <c r="F54" s="10">
+        <v>27617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10">
+        <v>202133</v>
+      </c>
+      <c r="E55" s="10">
+        <v>232288</v>
+      </c>
+      <c r="F55" s="10">
+        <v>177953</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="7">
+        <f>+SUM(B50:B55)</f>
+        <v>2112311</v>
+      </c>
+      <c r="C56" s="7">
+        <f t="shared" ref="C56:O56" si="9">+SUM(C50:C55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="9"/>
+        <v>1636331</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="9"/>
+        <v>1083284</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6">
+        <v>35727</v>
+      </c>
+      <c r="E57" s="6">
+        <v>31659</v>
+      </c>
+      <c r="F57" s="6">
+        <v>31223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="6">
+        <v>486892</v>
+      </c>
+      <c r="E58" s="6">
+        <v>562960</v>
+      </c>
+      <c r="F58" s="6">
+        <v>556174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="6">
+        <v>54391</v>
+      </c>
+      <c r="E59" s="6">
+        <v>58581</v>
+      </c>
+      <c r="F59" s="6">
+        <v>59149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="6">
+        <v>66311</v>
+      </c>
+      <c r="E60" s="6">
+        <v>49089</v>
+      </c>
+      <c r="F60" s="6">
+        <v>55593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="7">
+        <f>+SUM(B57:B60)</f>
+        <v>643321</v>
+      </c>
+      <c r="C61" s="7">
+        <f t="shared" ref="C61:O61" si="10">+SUM(C57:C60)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="10"/>
+        <v>702289</v>
+      </c>
+      <c r="F61" s="7">
+        <f t="shared" si="10"/>
+        <v>702139</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="7">
+        <f>+B61+B56</f>
+        <v>2755632</v>
+      </c>
+      <c r="C62" s="7">
+        <f t="shared" ref="C62:O62" si="11">+C61+C56</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" si="11"/>
+        <v>2338620</v>
+      </c>
+      <c r="F62" s="7">
+        <f t="shared" si="11"/>
+        <v>1785423</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="6">
+        <v>142</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6">
+        <v>142</v>
+      </c>
+      <c r="F64">
+        <v>142</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="6">
+        <v>377768</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6">
+        <v>387210</v>
+      </c>
+      <c r="F65" s="6">
+        <v>375155</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="6">
+        <v>-11066</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6">
+        <v>-10261</v>
+      </c>
+      <c r="F66" s="6">
+        <v>-631</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="6">
+        <v>16267</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6">
+        <v>22865</v>
+      </c>
+      <c r="F67" s="6">
+        <v>23411</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="6">
+        <v>786420</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6">
+        <v>882943</v>
+      </c>
+      <c r="F68" s="6">
+        <v>881911</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="7">
+        <f>+SUM(B64:B68)</f>
+        <v>1169531</v>
+      </c>
+      <c r="C69" s="7">
+        <f t="shared" ref="C69:O69" si="12">+SUM(C64:C68)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" si="12"/>
+        <v>1282899</v>
+      </c>
+      <c r="F69" s="7">
+        <f>+SUM(F64:F68)</f>
+        <v>1279988</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="6">
+        <v>176821</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6">
+        <v>233488</v>
+      </c>
+      <c r="F70" s="6">
+        <v>195662</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+    </row>
+    <row r="71" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="7">
+        <f>+B69+B70</f>
+        <v>1346352</v>
+      </c>
+      <c r="C71" s="7">
+        <f t="shared" ref="C71:O71" si="13">+C69+C70</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="7">
+        <f t="shared" si="13"/>
+        <v>1516387</v>
+      </c>
+      <c r="F71" s="7">
+        <f t="shared" si="13"/>
+        <v>1475650</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="7">
+        <f>+B71+B62</f>
+        <v>4101984</v>
+      </c>
+      <c r="C72" s="7">
+        <f t="shared" ref="C72:O72" si="14">+C71+C62</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" si="14"/>
+        <v>3855007</v>
+      </c>
+      <c r="F72" s="7">
+        <f t="shared" si="14"/>
+        <v>3261073</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ANDE.xlsx
+++ b/ANDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6571EE1C-0FCC-4CE5-B867-75435C6E7048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B5E104-097C-4080-B6F1-464780C11A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="3770" windowWidth="15490" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18410" yWindow="3950" windowWidth="16130" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>tc={08C49C7F-95C3-4BF5-B39A-6CFAAC1A1C12}</author>
   </authors>
   <commentList>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{0F9BE5B8-5796-4E2E-8B9B-522C055C1D3C}">
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{0F9BE5B8-5796-4E2E-8B9B-522C055C1D3C}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="A27" authorId="1" shapeId="0" xr:uid="{09C21225-6021-454F-AA5D-3C656067B3B2}">
+    <comment ref="A28" authorId="1" shapeId="0" xr:uid="{09C21225-6021-454F-AA5D-3C656067B3B2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     DDG tons shipped converts wet tons to a dry ton equivalent amount.</t>
       </text>
     </comment>
-    <comment ref="A29" authorId="2" shapeId="0" xr:uid="{017C51AF-36A4-4541-A04E-9D3DF33E7D0E}">
+    <comment ref="A30" authorId="2" shapeId="0" xr:uid="{017C51AF-36A4-4541-A04E-9D3DF33E7D0E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,7 +77,7 @@
 dry products for use in specialty turf and agricultural applications.</t>
       </text>
     </comment>
-    <comment ref="F86" authorId="3" shapeId="0" xr:uid="{BC8717E7-3E42-4B4D-A863-4AB454A2DC5E}">
+    <comment ref="F87" authorId="3" shapeId="0" xr:uid="{BC8717E7-3E42-4B4D-A863-4AB454A2DC5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
     The total borrowing capacity of the Company's lines of credit at March 31, 2024, was $1,859.1 million, of which, the Company had a total of $1,845.6 million available for borrowing. The Company's borrowing capacity is reduced by a combination of outstanding borrowings and letters of credit.</t>
       </text>
     </comment>
-    <comment ref="B94" authorId="4" shapeId="0" xr:uid="{17477335-2052-4CBD-A3A5-CD206523E3E8}">
+    <comment ref="B95" authorId="4" shapeId="0" xr:uid="{17477335-2052-4CBD-A3A5-CD206523E3E8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +93,7 @@
     As part of the Company's ongoing covenant monitoring process in the prior year, the Company determined that ELEMENT was out of compliance with its working capital and owner's equity ratio covenants as of March 31, 2023. In addition, ELEMENT did not make its required February 2023 debt payment and subsequently received a default notice from the lender on February 17, 2023. As such, the $62.8 million of non-recourse debt associated with ELEMENT was classified in Current maturities of long-term debt as of March 31, 2023. On April 18, 2023, ELEMENT was placed into receivership and the related debt associated with ELEMENT was deconsolidated from the Company's Condensed Consolidated Financial Statements</t>
       </text>
     </comment>
-    <comment ref="B122" authorId="5" shapeId="0" xr:uid="{08C49C7F-95C3-4BF5-B39A-6CFAAC1A1C12}">
+    <comment ref="B123" authorId="5" shapeId="0" xr:uid="{08C49C7F-95C3-4BF5-B39A-6CFAAC1A1C12}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="111">
   <si>
     <t>use for scripting</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Profit MoM</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -482,18 +487,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -778,14 +786,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A26" dT="2025-01-16T03:53:45.75" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{0F9BE5B8-5796-4E2E-8B9B-522C055C1D3C}">
+  <threadedComment ref="A27" dT="2025-01-16T03:53:45.75" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{0F9BE5B8-5796-4E2E-8B9B-522C055C1D3C}">
     <text xml:space="preserve">Includes corn oil, soybean oil, and other fats, oils, and greases
 </text>
   </threadedComment>
-  <threadedComment ref="A27" dT="2025-01-16T03:54:07.39" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{09C21225-6021-454F-AA5D-3C656067B3B2}">
+  <threadedComment ref="A28" dT="2025-01-16T03:54:07.39" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{09C21225-6021-454F-AA5D-3C656067B3B2}">
     <text>DDG tons shipped converts wet tons to a dry ton equivalent amount.</text>
   </threadedComment>
-  <threadedComment ref="A29" dT="2025-01-16T03:54:43.92" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{017C51AF-36A4-4541-A04E-9D3DF33E7D0E}">
+  <threadedComment ref="A30" dT="2025-01-16T03:54:43.92" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{017C51AF-36A4-4541-A04E-9D3DF33E7D0E}">
     <text>Ag Supply Chain represents facilities principally engaged in the wholesale distribution and retail sale and application of primary agricultural nutrients such
 as bulk nitrogen, phosphorus, and potassium. 
 Specialty Liquid locations produce and sell a variety of low-salt liquid starter fertilizers, micronutrients for agricultural use, and
@@ -793,13 +801,13 @@
 Engineered Granules include a variety of corncob-based products and facilities that primarily manufacture granulated
 dry products for use in specialty turf and agricultural applications.</text>
   </threadedComment>
-  <threadedComment ref="F86" dT="2025-01-16T03:53:02.93" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{BC8717E7-3E42-4B4D-A863-4AB454A2DC5E}">
+  <threadedComment ref="F87" dT="2025-01-16T03:53:02.93" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{BC8717E7-3E42-4B4D-A863-4AB454A2DC5E}">
     <text>The total borrowing capacity of the Company's lines of credit at March 31, 2024, was $1,859.1 million, of which, the Company had a total of $1,845.6 million available for borrowing. The Company's borrowing capacity is reduced by a combination of outstanding borrowings and letters of credit.</text>
   </threadedComment>
-  <threadedComment ref="B94" dT="2025-01-16T03:55:33.18" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{17477335-2052-4CBD-A3A5-CD206523E3E8}">
+  <threadedComment ref="B95" dT="2025-01-16T03:55:33.18" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{17477335-2052-4CBD-A3A5-CD206523E3E8}">
     <text>As part of the Company's ongoing covenant monitoring process in the prior year, the Company determined that ELEMENT was out of compliance with its working capital and owner's equity ratio covenants as of March 31, 2023. In addition, ELEMENT did not make its required February 2023 debt payment and subsequently received a default notice from the lender on February 17, 2023. As such, the $62.8 million of non-recourse debt associated with ELEMENT was classified in Current maturities of long-term debt as of March 31, 2023. On April 18, 2023, ELEMENT was placed into receivership and the related debt associated with ELEMENT was deconsolidated from the Company's Condensed Consolidated Financial Statements</text>
   </threadedComment>
-  <threadedComment ref="B122" dT="2025-01-16T03:55:12.46" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{08C49C7F-95C3-4BF5-B39A-6CFAAC1A1C12}">
+  <threadedComment ref="B123" dT="2025-01-16T03:55:12.46" personId="{EF08FFEE-F12E-4BA0-AB58-D5600A95BFAD}" id="{08C49C7F-95C3-4BF5-B39A-6CFAAC1A1C12}">
     <text>In the first quarter of 2023, the Company recorded a $87.2 million impairment charge related to ELEMENT. The plant faced operational and market-based challenges which were exacerbated by a shift in the California Low Carbon Fuel Standard credit markets and high western corn basis. At the time of the impairment, the Company owned 51% of ELEMENT and it was a consolidated entity, as such, 49% of the impairment charge was represented in Net income (loss) attributable to noncontrolling interests in the Company's Condensed Consolidated Statements of Operations.</text>
   </threadedComment>
 </ThreadedComments>
@@ -821,10 +829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357728C9-468B-45AD-9654-66B0177430FA}">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -840,184 +848,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
         <v>2023</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L3" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="5">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="5">
         <v>45107</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>45199</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>45473</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="5">
         <v>45565</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>3142260</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>2069374</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="3">
-        <f>SUM(B6:B10)</f>
+      <c r="B6" s="3">
+        <f>SUM(B7:B11)</f>
         <v>738978</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5:H5" si="0">SUM(C6:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:H6" si="0">SUM(C7:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>648843</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" ref="I5" si="1">SUM(I6:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="2">
-        <v>69997</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>69724</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="3">
+        <f t="shared" ref="I6" si="1">SUM(I7:I11)</f>
+        <v>0</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2">
-        <v>64750</v>
+        <v>69997</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <v>67312</v>
+        <v>69724</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1028,16 +1021,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2">
-        <v>483575</v>
+        <v>64750</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <v>408509</v>
+        <v>67312</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1048,16 +1041,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2">
-        <v>76523</v>
+        <v>483575</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>69796</v>
+        <v>408509</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1068,16 +1061,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2">
-        <v>44133</v>
+        <v>76523</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>33502</v>
+        <v>69796</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1086,92 +1079,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44133</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>33502</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="3">
-        <f>+SUM(B13:B15)</f>
+      <c r="B13" s="3">
+        <f>+SUM(B14:B16)</f>
         <v>3881238</v>
       </c>
-      <c r="C12" s="3">
-        <f t="shared" ref="C12:I12" si="2">+SUM(C13:C15)</f>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13:I13" si="2">+SUM(C14:C16)</f>
         <v>4020183</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <f t="shared" si="2"/>
         <v>2718217</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <f t="shared" si="2"/>
         <v>2795205</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2877780</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2696810</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>1893859</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1757741</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
       <c r="J13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2">
-        <v>839516</v>
+        <v>2877780</v>
       </c>
       <c r="C14" s="2">
-        <v>877781</v>
+        <v>2696810</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <v>657039</v>
+        <v>1893859</v>
       </c>
       <c r="G14" s="2">
-        <v>686127</v>
+        <v>1757741</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1181,21 +1170,21 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2">
-        <v>163942</v>
+        <v>839516</v>
       </c>
       <c r="C15" s="2">
-        <v>445592</v>
+        <v>877781</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
-        <v>167319</v>
+        <v>657039</v>
       </c>
       <c r="G15" s="2">
-        <v>351337</v>
+        <v>686127</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1203,63 +1192,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="2">
+        <v>163942</v>
+      </c>
+      <c r="C16" s="2">
+        <v>445592</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>167319</v>
+      </c>
+      <c r="G16" s="2">
+        <v>351337</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="3">
-        <f>+SUM(B18:B21)</f>
+      <c r="B18" s="3">
+        <f>+SUM(B19:B22)</f>
         <v>-65001</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:H17" si="3">+SUM(C18:C21)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C18" s="3">
+        <f t="shared" ref="C18:H18" si="3">+SUM(C19:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <f t="shared" si="3"/>
         <v>13968</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <f t="shared" si="3"/>
         <v>57346</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" ref="I17" si="4">+SUM(I18:I21)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="2">
-        <v>39364</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5924</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5424</v>
+      <c r="I18" s="3">
+        <f t="shared" ref="I18" si="4">+SUM(I19:I22)</f>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>2</v>
@@ -1267,16 +1263,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2">
-        <v>-82513</v>
+        <v>39364</v>
       </c>
       <c r="F19" s="2">
-        <v>22791</v>
+        <v>5924</v>
       </c>
       <c r="G19" s="2">
-        <v>39200</v>
+        <v>5424</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>2</v>
@@ -1284,16 +1280,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2">
-        <v>-10438</v>
+        <v>-82513</v>
       </c>
       <c r="F20" s="2">
-        <v>-1850</v>
+        <v>22791</v>
       </c>
       <c r="G20" s="2">
-        <v>23419</v>
+        <v>39200</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>2</v>
@@ -1301,85 +1297,80 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-10438</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-1850</v>
+      </c>
+      <c r="G21" s="2">
+        <v>23419</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="2">
         <v>-11414</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>-12897</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="2">
         <v>-10697</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
-      <c r="F22" s="2"/>
       <c r="J22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="J23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="3">
-        <f>+SUM(B24:B27)</f>
+      <c r="B24" s="3">
+        <f>+SUM(B25:B28)</f>
         <v>458269</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23:H23" si="5">+SUM(C24:C27)</f>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:H24" si="5">+SUM(C25:C28)</f>
         <v>512404</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="3">
         <f t="shared" si="5"/>
         <v>569648</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="3">
         <f t="shared" si="5"/>
         <v>605686</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" ref="I23" si="6">+SUM(I24:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="2">
-        <v>186566</v>
-      </c>
-      <c r="C24" s="2">
-        <v>198633</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
-        <v>185826</v>
-      </c>
-      <c r="G24" s="2">
-        <v>187050</v>
+      <c r="I24" s="3">
+        <f t="shared" ref="I24" si="6">+SUM(I25:I28)</f>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>2</v>
@@ -1387,21 +1378,21 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2">
-        <v>9519</v>
+        <v>186566</v>
       </c>
       <c r="C25" s="2">
-        <v>9562</v>
+        <v>198633</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
-        <v>12291</v>
+        <v>185826</v>
       </c>
       <c r="G25" s="2">
-        <v>13494</v>
+        <v>187050</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>2</v>
@@ -1409,21 +1400,21 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2">
-        <v>261655</v>
+        <v>9519</v>
       </c>
       <c r="C26" s="2">
-        <v>303701</v>
+        <v>9562</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
-        <v>370983</v>
+        <v>12291</v>
       </c>
       <c r="G26" s="2">
-        <v>404589</v>
+        <v>13494</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>2</v>
@@ -1431,88 +1422,90 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="2">
-        <v>529</v>
+        <v>261655</v>
       </c>
       <c r="C27" s="2">
-        <v>508</v>
+        <v>303701</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
+        <v>370983</v>
+      </c>
+      <c r="G27" s="2">
+        <v>404589</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="2">
+        <v>529</v>
+      </c>
+      <c r="C28" s="2">
+        <v>508</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
         <v>548</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G28" s="2">
         <v>553</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
-      <c r="F28" s="2"/>
       <c r="J28" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="J29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="3">
-        <f>+SUM(B30:B32)</f>
+      <c r="B30" s="3">
+        <f>+SUM(B31:B33)</f>
         <v>315</v>
       </c>
-      <c r="C29" s="3">
-        <f t="shared" ref="C29:H29" si="7">+SUM(C30:C32)</f>
+      <c r="C30" s="3">
+        <f t="shared" ref="C30:H30" si="7">+SUM(C31:C33)</f>
         <v>861</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="3">
         <f t="shared" si="7"/>
         <v>354</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="3">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I29" s="3">
-        <f t="shared" ref="I29" si="8">+SUM(I30:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="2">
-        <v>170</v>
-      </c>
-      <c r="C30">
-        <v>674</v>
-      </c>
-      <c r="F30" s="2">
-        <v>199</v>
-      </c>
-      <c r="G30" s="2">
-        <v>578</v>
+      <c r="I30" s="3">
+        <f t="shared" ref="I30" si="8">+SUM(I31:I33)</f>
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>2</v>
@@ -1520,19 +1513,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="C31">
-        <v>141</v>
+        <v>674</v>
       </c>
       <c r="F31" s="2">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="G31" s="2">
-        <v>117</v>
+        <v>578</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>2</v>
@@ -1540,245 +1533,241 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <v>141</v>
+      </c>
+      <c r="F32" s="2">
+        <v>91</v>
+      </c>
+      <c r="G32" s="2">
+        <v>117</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="2">
         <v>63</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>46</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>64</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="2">
         <v>57</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-      <c r="F33" s="2"/>
       <c r="J33" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="str">
-        <f>B2</f>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="J34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="str">
+        <f>B3</f>
         <v>Q123</v>
       </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" ref="C34:I34" si="9">C2</f>
+      <c r="C35" s="1" t="str">
+        <f t="shared" ref="C35:I35" si="9">C3</f>
         <v>Q223</v>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="D35" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Q323</v>
       </c>
-      <c r="E34" s="1" t="str">
+      <c r="E35" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Q423</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="F35" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Q124</v>
       </c>
-      <c r="G34" s="1" t="str">
+      <c r="G35" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Q224</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="H35" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Q324</v>
       </c>
-      <c r="I34" s="1" t="str">
+      <c r="I35" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Q424</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="J35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4">
-        <f>(F39-B39)/B39</f>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
+        <f>(F40-B40)/B40</f>
         <v>-0.29965206977773584</v>
       </c>
-      <c r="G35" s="4">
-        <f t="shared" ref="G35:I35" si="10">(G39-C39)/C39</f>
+      <c r="G36" s="4">
+        <f t="shared" ref="G36:I36" si="10">(G40-C40)/C40</f>
         <v>-0.30470702453097287</v>
       </c>
-      <c r="H35" s="4" t="e">
+      <c r="H36" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="4" t="e">
+      <c r="I36" s="4" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="J36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="4" t="e">
-        <f t="shared" ref="B36:F36" si="11">(B39-A39)/B39</f>
+      <c r="B37" s="4" t="e">
+        <f t="shared" ref="B37:E37" si="11">(B40-A40)/B40</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C37" s="4">
         <f t="shared" si="11"/>
         <v>3.456185949744079E-2</v>
       </c>
-      <c r="D36" s="4" t="e">
+      <c r="D37" s="4" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="4" t="e">
+      <c r="E37" s="4" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="4">
-        <f>(F39-E39)/F39</f>
+      <c r="F37" s="4">
+        <f>(F40-E40)/F40</f>
         <v>1</v>
       </c>
-      <c r="G36" s="4">
-        <f t="shared" ref="G36:I36" si="12">(G39-F39)/G39</f>
+      <c r="G37" s="4">
+        <f t="shared" ref="G37:I37" si="12">(G40-F40)/G40</f>
         <v>2.754288147023206E-2</v>
       </c>
-      <c r="H36" s="4" t="e">
+      <c r="H37" s="4" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="4" t="e">
+      <c r="I37" s="4" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="J37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4">
-        <f>(F41-B41)/B41</f>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4">
+        <f>(F42-B42)/B42</f>
         <v>-0.13303740938173514</v>
       </c>
-      <c r="G37" s="4">
-        <f t="shared" ref="G37:I37" si="13">(G41-C41)/C41</f>
+      <c r="G38" s="4">
+        <f t="shared" ref="G38:I38" si="13">(G42-C42)/C42</f>
         <v>-0.20981629922004894</v>
       </c>
-      <c r="H37" s="4" t="e">
+      <c r="H38" s="4" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="4" t="e">
+      <c r="I38" s="4" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="J38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="4" t="e">
-        <f t="shared" ref="B38:F38" si="14">(B41-A41)/A41</f>
+      <c r="B39" s="4" t="e">
+        <f t="shared" ref="B39:E39" si="14">(B42-A42)/A42</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C39" s="4">
         <f t="shared" si="14"/>
         <v>0.49946287775908549</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="4">
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="E38" s="4" t="e">
+      <c r="E39" s="4" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="4" t="e">
-        <f>(F41-E41)/E41</f>
+      <c r="F39" s="4" t="e">
+        <f>(F42-E42)/E42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="4">
-        <f t="shared" ref="G38:I38" si="15">(G41-F41)/F41</f>
+      <c r="G39" s="4">
+        <f t="shared" ref="G39:I39" si="15">(G42-F42)/F42</f>
         <v>0.36666926433915215</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H39" s="4">
         <f t="shared" si="15"/>
         <v>-1</v>
       </c>
-      <c r="I38" s="4" t="e">
+      <c r="I39" s="4" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3881238</v>
-      </c>
-      <c r="C39" s="2">
-        <v>4020183</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2">
-        <v>2718217</v>
-      </c>
-      <c r="G39" s="2">
-        <v>2795205</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
       <c r="J39" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2">
-        <v>3733227</v>
+        <v>3881238</v>
       </c>
       <c r="C40" s="2">
-        <v>3798246</v>
+        <v>4020183</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2">
-        <v>2589897</v>
+        <v>2718217</v>
       </c>
       <c r="G40" s="2">
-        <v>2619834</v>
+        <v>2795205</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1786,87 +1775,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3733227</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3798246</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
+        <v>2589897</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2619834</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="3">
-        <f>B39-B40</f>
+      <c r="B42" s="3">
+        <f>B40-B41</f>
         <v>148011</v>
       </c>
-      <c r="C41" s="3">
-        <f t="shared" ref="C41:E41" si="16">C39-C40</f>
+      <c r="C42" s="3">
+        <f t="shared" ref="C42:E42" si="16">C40-C41</f>
         <v>221937</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F41" s="3">
-        <f>F39-F40</f>
+      <c r="F42" s="3">
+        <f>F40-F41</f>
         <v>128320</v>
       </c>
-      <c r="G41" s="3">
-        <f>G39-G40</f>
+      <c r="G42" s="3">
+        <f>G40-G41</f>
         <v>175371</v>
       </c>
-      <c r="H41" s="3">
-        <f t="shared" ref="H41:I41" si="17">H39-H40</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="H42" s="3">
+        <f t="shared" ref="H42:I42" si="17">H40-H41</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="2">
-        <v>117235</v>
-      </c>
-      <c r="C42" s="2">
-        <v>116007</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2">
-        <v>119358</v>
-      </c>
-      <c r="G42" s="2">
-        <v>116614</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
       <c r="J42" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2">
-        <v>87156</v>
+        <v>117235</v>
       </c>
       <c r="C43" s="2">
-        <v>0</v>
+        <v>116007</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2">
-        <v>0</v>
+        <v>119358</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>116614</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1876,21 +1865,21 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>16625</v>
+        <v>87156</v>
       </c>
       <c r="C44" s="2">
-        <v>13953</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2">
-        <v>6522</v>
+        <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>6611</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1898,878 +1887,874 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2">
+        <v>16625</v>
+      </c>
+      <c r="C45" s="2">
+        <v>13953</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>6522</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6611</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="3">
-        <f>SUM(B42:B44)</f>
+      <c r="B46" s="3">
+        <f>SUM(B43:B45)</f>
         <v>221016</v>
       </c>
-      <c r="C45" s="3">
-        <f t="shared" ref="C45:G45" si="18">SUM(C42:C44)</f>
+      <c r="C46" s="3">
+        <f t="shared" ref="C46:G46" si="18">SUM(C43:C45)</f>
         <v>129960</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="3">
         <f t="shared" si="18"/>
         <v>125880</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="3">
         <f t="shared" si="18"/>
         <v>123225</v>
       </c>
-      <c r="H45" s="3">
-        <f t="shared" ref="H45:I45" si="19">SUM(H42:H44)</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="H46" s="3">
+        <f t="shared" ref="H46:I46" si="19">SUM(H43:H45)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="J46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2">
         <v>8004</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>12441</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
         <v>11528</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G47" s="2">
         <v>5200</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="3">
-        <f>+B41-B45+B46</f>
+      <c r="B48" s="3">
+        <f>+B42-B46+B47</f>
         <v>-65001</v>
       </c>
-      <c r="C47" s="3">
-        <f t="shared" ref="C47:G47" si="20">+C41-C45+C46</f>
+      <c r="C48" s="3">
+        <f t="shared" ref="C48:G48" si="20">+C42-C46+C47</f>
         <v>104418</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D48" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="3">
         <f t="shared" si="20"/>
         <v>13968</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <f t="shared" si="20"/>
         <v>57346</v>
       </c>
-      <c r="H47" s="3">
-        <f t="shared" ref="H47:I47" si="21">+H41-H45+H46</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="H48" s="3">
+        <f t="shared" ref="H48:I48" si="21">+H42-H46+H47</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="J48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49" s="2">
         <v>-5884</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>21732</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
         <v>1303</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G49" s="2">
         <v>4876</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="3">
-        <f>B47-B48</f>
+      <c r="B50" s="3">
+        <f>B48-B49</f>
         <v>-59117</v>
       </c>
-      <c r="C49" s="3">
-        <f t="shared" ref="C49:G49" si="22">C47-C48</f>
+      <c r="C50" s="3">
+        <f t="shared" ref="C50:G50" si="22">C48-C49</f>
         <v>82686</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D50" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E50" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="3">
         <f t="shared" si="22"/>
         <v>12665</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="3">
         <f t="shared" si="22"/>
         <v>52470</v>
       </c>
-      <c r="H49" s="3">
-        <f t="shared" ref="H49:I49" si="23">H47-H48</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="H50" s="3">
+        <f t="shared" ref="H50:I50" si="23">H48-H49</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="J50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B51" s="2">
         <v>-44367</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="2">
         <v>27640</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
         <v>7084</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G51" s="2">
         <v>16494</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="3">
-        <f>B49-B50</f>
+      <c r="B52" s="3">
+        <f>B50-B51</f>
         <v>-14750</v>
       </c>
-      <c r="C51" s="3">
-        <f t="shared" ref="C51:G51" si="24">C49-C50</f>
+      <c r="C52" s="3">
+        <f t="shared" ref="C52:G52" si="24">C50-C51</f>
         <v>55046</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D52" s="3">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E52" s="3">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F52" s="3">
         <f t="shared" si="24"/>
         <v>5581</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G52" s="3">
         <f t="shared" si="24"/>
         <v>35976</v>
       </c>
-      <c r="H51" s="3">
-        <f t="shared" ref="H51:I51" si="25">H49-H50</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="H52" s="3">
+        <f t="shared" ref="H52:I52" si="25">H50-H51</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="2">
-        <v>33622</v>
-      </c>
-      <c r="C53" s="2">
-        <v>33744</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2">
-        <v>33932</v>
-      </c>
-      <c r="G53" s="2">
-        <v>34060</v>
-      </c>
       <c r="J53" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54" s="2">
         <v>33622</v>
       </c>
       <c r="C54" s="2">
-        <v>34165</v>
+        <v>33744</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2">
+        <v>33932</v>
+      </c>
+      <c r="G54" s="2">
+        <v>34060</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="2">
+        <v>33622</v>
+      </c>
+      <c r="C55" s="2">
+        <v>34165</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
         <v>34243</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G55" s="2">
         <v>34339</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="J55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="4">
-        <f>B51/B53</f>
+      <c r="B56" s="4">
+        <f>B52/B54</f>
         <v>-0.43870085063351377</v>
       </c>
-      <c r="C55" s="4">
-        <f t="shared" ref="C55:E55" si="26">C51/C53</f>
+      <c r="C56" s="4">
+        <f t="shared" ref="C56:E56" si="26">C52/C54</f>
         <v>1.6312825983878616</v>
       </c>
-      <c r="D55" s="4" t="e">
+      <c r="D56" s="4" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E55" s="4" t="e">
+      <c r="E56" s="4" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F55" s="4">
-        <f t="shared" ref="F55:G55" si="27">F51/F53</f>
+      <c r="F56" s="4">
+        <f t="shared" ref="F56:G56" si="27">F52/F54</f>
         <v>0.16447601084521984</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="4">
         <f t="shared" si="27"/>
         <v>1.0562536699941281</v>
       </c>
-      <c r="H55" s="4" t="e">
-        <f t="shared" ref="H55:I55" si="28">H51/H53</f>
+      <c r="H56" s="4" t="e">
+        <f t="shared" ref="H56:I56" si="28">H52/H54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I55" s="4" t="e">
+      <c r="I56" s="4" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K55" s="4" t="e">
-        <f t="shared" ref="K55:L55" si="29">K51/K53</f>
+      <c r="J56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K56" s="4" t="e">
+        <f t="shared" ref="K56:L56" si="29">K52/K54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="4" t="e">
+      <c r="L56" s="4" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="4">
-        <f>B51/B54</f>
+      <c r="B57" s="4">
+        <f>B52/B55</f>
         <v>-0.43870085063351377</v>
       </c>
-      <c r="C56" s="4">
-        <f t="shared" ref="C56:G56" si="30">C51/C54</f>
+      <c r="C57" s="4">
+        <f t="shared" ref="C57:G57" si="30">C52/C55</f>
         <v>1.6111810332211327</v>
       </c>
-      <c r="D56" s="4" t="e">
+      <c r="D57" s="4" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E56" s="4" t="e">
+      <c r="E57" s="4" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F57" s="4">
         <f t="shared" si="30"/>
         <v>0.16298221534328183</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G57" s="4">
         <f t="shared" si="30"/>
         <v>1.0476717434986458</v>
       </c>
-      <c r="H56" s="4" t="e">
-        <f t="shared" ref="H56:I56" si="31">H51/H54</f>
+      <c r="H57" s="4" t="e">
+        <f t="shared" ref="H57:I57" si="31">H52/H55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I56" s="4" t="e">
+      <c r="I57" s="4" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K56" s="4" t="e">
-        <f t="shared" ref="K56:L56" si="32">K51/K54</f>
+      <c r="J57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="4" t="e">
+        <f t="shared" ref="K57:L57" si="32">K52/K55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="4" t="e">
+      <c r="L57" s="4" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J57" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="3">
-        <f>B49</f>
+      <c r="B59" s="3">
+        <f>B50</f>
         <v>-59117</v>
       </c>
-      <c r="C58" s="3">
-        <f t="shared" ref="C58:G58" si="33">C49</f>
+      <c r="C59" s="3">
+        <f t="shared" ref="C59:G59" si="33">C50</f>
         <v>82686</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D59" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F59" s="3">
         <f t="shared" si="33"/>
         <v>12665</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G59" s="3">
         <f t="shared" si="33"/>
         <v>52470</v>
       </c>
-      <c r="H58" s="3">
-        <f t="shared" ref="H58:L58" si="34">H49</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="H59" s="3">
+        <f t="shared" ref="H59:L59" si="34">H50</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="J59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L59" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="2">
-        <v>-59117</v>
-      </c>
-      <c r="C59" s="2">
-        <f>23569-B59</f>
-        <v>82686</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2">
-        <v>12665</v>
-      </c>
-      <c r="G59" s="2">
-        <f>65135-F59</f>
-        <v>52470</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K59" s="2">
-        <f>SUM(B59:E59)</f>
-        <v>23569</v>
-      </c>
-      <c r="L59" s="2">
-        <f>SUM(F59:I59)</f>
-        <v>65135</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>3220</v>
+        <v>-59117</v>
       </c>
       <c r="C60" s="2">
-        <f>62585-B60</f>
-        <v>59365</v>
+        <f>23569-B60</f>
+        <v>82686</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2">
-        <v>30949</v>
+        <v>12665</v>
       </c>
       <c r="G60" s="2">
-        <f>61218-F60</f>
-        <v>30269</v>
+        <f>65135-F60</f>
+        <v>52470</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K60" s="2">
-        <f>SUM(B60:E60)</f>
-        <v>62585</v>
+        <f t="shared" ref="K60:K69" si="35">SUM(B60:E60)</f>
+        <v>23569</v>
       </c>
       <c r="L60" s="2">
-        <f>SUM(F60:I60)</f>
-        <v>61218</v>
+        <f t="shared" ref="L60:L69" si="36">SUM(F60:I60)</f>
+        <v>65135</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B61" s="2">
-        <v>87156</v>
+        <v>3220</v>
       </c>
       <c r="C61" s="2">
-        <f>87156-B61</f>
-        <v>0</v>
+        <f>62585-B61</f>
+        <v>59365</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2">
-        <v>0</v>
+        <v>30949</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <f>61218-F61</f>
+        <v>30269</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K61" s="2">
-        <f>SUM(B61:E61)</f>
-        <v>87156</v>
+        <f t="shared" si="35"/>
+        <v>62585</v>
       </c>
       <c r="L61" s="2">
-        <f>SUM(F61:I61)</f>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>61218</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B62" s="2">
-        <v>-2230</v>
+        <v>87156</v>
       </c>
       <c r="C62" s="2">
-        <f>952-B62</f>
-        <v>3182</v>
+        <f>87156-B62</f>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2">
-        <v>4795</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2">
-        <f>10821-F62</f>
-        <v>6026</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K62" s="2">
-        <f>SUM(B62:E62)</f>
-        <v>952</v>
+        <f t="shared" si="35"/>
+        <v>87156</v>
       </c>
       <c r="L62" s="2">
-        <f>SUM(F62:I62)</f>
-        <v>10821</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B63" s="2">
-        <v>125113</v>
+        <v>-2230</v>
       </c>
       <c r="C63" s="2">
-        <f>207867-B63</f>
-        <v>82754</v>
+        <f>952-B63</f>
+        <v>3182</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2">
-        <v>57725</v>
+        <v>4795</v>
       </c>
       <c r="G63" s="2">
-        <f>15284-F63</f>
-        <v>-42441</v>
+        <f>10821-F63</f>
+        <v>6026</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K63" s="2">
-        <f>SUM(B63:E63)</f>
-        <v>207867</v>
+        <f t="shared" si="35"/>
+        <v>952</v>
       </c>
       <c r="L63" s="2">
-        <f>SUM(F63:I63)</f>
-        <v>15284</v>
+        <f t="shared" si="36"/>
+        <v>10821</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2">
-        <v>178010</v>
+        <v>125113</v>
       </c>
       <c r="C64" s="2">
-        <f>734855-B64</f>
-        <v>556845</v>
+        <f>207867-B64</f>
+        <v>82754</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2">
-        <v>169083</v>
+        <v>57725</v>
       </c>
       <c r="G64" s="2">
-        <f>477723-F64</f>
-        <v>308640</v>
+        <f>15284-F64</f>
+        <v>-42441</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K64" s="2">
-        <f>SUM(B64:E64)</f>
-        <v>734855</v>
+        <f t="shared" si="35"/>
+        <v>207867</v>
       </c>
       <c r="L64" s="2">
-        <f>SUM(F64:I64)</f>
-        <v>477723</v>
+        <f t="shared" si="36"/>
+        <v>15284</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2">
-        <v>83148</v>
+        <v>178010</v>
       </c>
       <c r="C65" s="2">
-        <f>102753-B65</f>
-        <v>19605</v>
+        <f>734855-B65</f>
+        <v>556845</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2">
-        <v>-28498</v>
+        <v>169083</v>
       </c>
       <c r="G65" s="2">
-        <f>36010-F65</f>
-        <v>64508</v>
+        <f>477723-F65</f>
+        <v>308640</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K65" s="2">
-        <f>SUM(B65:E65)</f>
-        <v>102753</v>
+        <f t="shared" si="35"/>
+        <v>734855</v>
       </c>
       <c r="L65" s="2">
-        <f>SUM(F65:I65)</f>
-        <v>36010</v>
+        <f t="shared" si="36"/>
+        <v>477723</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2">
-        <v>-17543</v>
+        <v>83148</v>
       </c>
       <c r="C66" s="2">
-        <f>-1247-B66</f>
-        <v>16296</v>
+        <f>102753-B66</f>
+        <v>19605</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2">
-        <v>1923</v>
+        <v>-28498</v>
       </c>
       <c r="G66" s="2">
-        <f>-50587-F66</f>
-        <v>-52510</v>
+        <f>36010-F66</f>
+        <v>64508</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K66" s="2">
-        <f>SUM(B66:E66)</f>
-        <v>-1247</v>
+        <f t="shared" si="35"/>
+        <v>102753</v>
       </c>
       <c r="L66" s="2">
-        <f>SUM(F66:I66)</f>
-        <v>-50587</v>
+        <f t="shared" si="36"/>
+        <v>36010</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2">
-        <v>-760292</v>
+        <v>-17543</v>
       </c>
       <c r="C67" s="2">
-        <f>-1011086-B67</f>
-        <v>-250794</v>
+        <f>-1247-B67</f>
+        <v>16296</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2">
+        <v>1923</v>
+      </c>
+      <c r="G67" s="2">
+        <f>-50587-F67</f>
+        <v>-52510</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" si="35"/>
+        <v>-1247</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="36"/>
+        <v>-50587</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-760292</v>
+      </c>
+      <c r="C68" s="2">
+        <f>-1011086-B68</f>
+        <v>-250794</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
         <v>-488269</v>
       </c>
-      <c r="G67" s="2">
-        <f>-550797-F67</f>
+      <c r="G68" s="2">
+        <f>-550797-F68</f>
         <v>-62528</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K67" s="2">
-        <f>SUM(B67:E67)</f>
+      <c r="J68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="35"/>
         <v>-1011086</v>
       </c>
-      <c r="L67" s="2">
-        <f>SUM(F67:I67)</f>
+      <c r="L68" s="2">
+        <f t="shared" si="36"/>
         <v>-550797</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
-        <f t="shared" ref="B68:E68" si="35">+SUM(B59:B67)</f>
+      <c r="B69" s="3">
+        <f t="shared" ref="B69:E69" si="37">+SUM(B60:B68)</f>
         <v>-362535</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C69" s="3">
+        <f t="shared" si="37"/>
+        <v>569939</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <f>+SUM(F60:F68)</f>
+        <v>-239627</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" ref="G69:I69" si="38">+SUM(G60:G68)</f>
+        <v>304434</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="3">
         <f t="shared" si="35"/>
-        <v>569939</v>
-      </c>
-      <c r="D68" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <f>+SUM(F59:F67)</f>
-        <v>-239627</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" ref="G68:I68" si="36">+SUM(G59:G67)</f>
-        <v>304434</v>
-      </c>
-      <c r="H68" s="3">
+        <v>207404</v>
+      </c>
+      <c r="L69" s="3">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K68" s="3">
-        <f>SUM(B68:E68)</f>
-        <v>207404</v>
-      </c>
-      <c r="L68" s="3">
-        <f>SUM(F68:I68)</f>
         <v>64807</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="1" t="str">
-        <f t="shared" ref="B70:L70" si="37">B2</f>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="1" t="str">
+        <f t="shared" ref="B71:L71" si="39">B3</f>
         <v>Q123</v>
       </c>
-      <c r="C70" s="1" t="str">
-        <f t="shared" si="37"/>
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>Q223</v>
       </c>
-      <c r="D70" s="1" t="str">
-        <f t="shared" si="37"/>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>Q323</v>
       </c>
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="37"/>
+      <c r="E71" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>Q423</v>
       </c>
-      <c r="F70" s="1" t="str">
-        <f t="shared" si="37"/>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>Q124</v>
       </c>
-      <c r="G70" s="1" t="str">
-        <f t="shared" si="37"/>
+      <c r="G71" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>Q224</v>
       </c>
-      <c r="H70" s="1" t="str">
-        <f t="shared" si="37"/>
+      <c r="H71" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>Q324</v>
       </c>
-      <c r="I70" s="1" t="str">
-        <f t="shared" si="37"/>
+      <c r="I71" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>Q424</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K70" s="1">
-        <f t="shared" si="37"/>
+      <c r="J71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="39"/>
         <v>2023</v>
       </c>
-      <c r="L70" s="1">
-        <f t="shared" si="37"/>
+      <c r="L71" s="1">
+        <f t="shared" si="39"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="2">
-        <v>70853</v>
-      </c>
-      <c r="C72" s="2">
-        <v>96293</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2">
-        <v>643854</v>
-      </c>
-      <c r="F72" s="2">
-        <v>283902</v>
-      </c>
-      <c r="G72" s="2">
-        <v>530386</v>
-      </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
       <c r="J72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B73" s="2">
-        <v>1125071</v>
+        <v>70853</v>
       </c>
       <c r="C73" s="2">
-        <v>1030271</v>
+        <v>96293</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2">
-        <v>762549</v>
+        <v>643854</v>
       </c>
       <c r="F73" s="2">
-        <v>701706</v>
+        <v>283902</v>
       </c>
       <c r="G73" s="2">
-        <v>743550</v>
+        <v>530386</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2781,23 +2766,23 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74" s="2">
-        <v>1551101</v>
+        <v>1125071</v>
       </c>
       <c r="C74" s="2">
-        <v>990789</v>
+        <v>1030271</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2">
-        <v>1166700</v>
+        <v>762549</v>
       </c>
       <c r="F74" s="2">
-        <v>994543</v>
+        <v>701706</v>
       </c>
       <c r="G74" s="2">
-        <v>686540</v>
+        <v>743550</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2809,23 +2794,23 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B75" s="2">
-        <v>222036</v>
+        <v>1551101</v>
       </c>
       <c r="C75" s="2">
-        <v>347684</v>
+        <v>990789</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2">
-        <v>178083</v>
+        <v>1166700</v>
       </c>
       <c r="F75" s="2">
-        <v>178623</v>
+        <v>994543</v>
       </c>
       <c r="G75" s="2">
-        <v>180189</v>
+        <v>686540</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2837,23 +2822,23 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B76" s="2">
-        <v>81407</v>
+        <v>222036</v>
       </c>
       <c r="C76" s="2">
-        <v>72228</v>
+        <v>347684</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2">
-        <v>55777</v>
+        <v>178083</v>
       </c>
       <c r="F76" s="2">
-        <v>55134</v>
+        <v>178623</v>
       </c>
       <c r="G76" s="2">
-        <v>108634</v>
+        <v>180189</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2863,93 +2848,97 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="2">
+        <v>81407</v>
+      </c>
+      <c r="C77" s="2">
+        <v>72228</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2">
+        <v>55777</v>
+      </c>
+      <c r="F77" s="2">
+        <v>55134</v>
+      </c>
+      <c r="G77" s="2">
+        <v>108634</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="3">
-        <f>+SUM(B72:B76)</f>
+      <c r="B78" s="3">
+        <f>+SUM(B73:B77)</f>
         <v>3050468</v>
       </c>
-      <c r="C77" s="3">
-        <f t="shared" ref="C77:L77" si="38">+SUM(C72:C76)</f>
+      <c r="C78" s="3">
+        <f t="shared" ref="C78:L78" si="40">+SUM(C73:C77)</f>
         <v>2537265</v>
       </c>
-      <c r="D77" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="3">
-        <f t="shared" si="38"/>
+      <c r="D78" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" si="40"/>
         <v>2806963</v>
       </c>
-      <c r="F77" s="3">
-        <f t="shared" si="38"/>
+      <c r="F78" s="3">
+        <f t="shared" si="40"/>
         <v>2213908</v>
       </c>
-      <c r="G77" s="3">
-        <f t="shared" si="38"/>
+      <c r="G78" s="3">
+        <f t="shared" si="40"/>
         <v>2249299</v>
       </c>
-      <c r="H77" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K77" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="2">
-        <v>129342</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2">
-        <v>127856</v>
-      </c>
-      <c r="F78" s="2">
-        <v>127856</v>
-      </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="H78" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
       <c r="J78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="K78" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" s="2">
-        <v>95134</v>
+        <v>129342</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2">
-        <v>85579</v>
+        <v>127856</v>
       </c>
       <c r="F79" s="2">
-        <v>80527</v>
-      </c>
-      <c r="G79" s="2"/>
+        <v>127856</v>
+      </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="1" t="s">
@@ -2960,18 +2949,18 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B80" s="2">
-        <v>59209</v>
+        <v>95134</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2">
-        <v>54234</v>
+        <v>85579</v>
       </c>
       <c r="F80" s="2">
-        <v>52541</v>
+        <v>80527</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2984,24 +2973,20 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B81" s="2">
-        <v>89174</v>
-      </c>
-      <c r="C81" s="2">
-        <v>369340</v>
-      </c>
+        <v>59209</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2">
-        <v>87010</v>
+        <v>54234</v>
       </c>
       <c r="F81" s="2">
-        <v>97128</v>
-      </c>
-      <c r="G81" s="2">
-        <v>356378</v>
-      </c>
+        <v>52541</v>
+      </c>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="1" t="s">
@@ -3012,23 +2997,23 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B82" s="2">
-        <v>678717</v>
+        <v>89174</v>
       </c>
       <c r="C82" s="2">
-        <v>663441</v>
+        <v>369340</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2">
-        <v>693365</v>
+        <v>87010</v>
       </c>
       <c r="F82" s="2">
-        <v>689113</v>
+        <v>97128</v>
       </c>
       <c r="G82" s="2">
-        <v>694136</v>
+        <v>356378</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -3038,163 +3023,167 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B83" s="3">
-        <f>+SUM(B78:B82)</f>
-        <v>1051576</v>
-      </c>
-      <c r="C83" s="3">
-        <f t="shared" ref="C83:L83" si="39">+SUM(C78:C82)</f>
-        <v>1032781</v>
-      </c>
-      <c r="D83" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" si="39"/>
-        <v>1048044</v>
-      </c>
-      <c r="F83" s="3">
-        <f t="shared" si="39"/>
-        <v>1047165</v>
-      </c>
-      <c r="G83" s="3">
-        <f>+SUM(G79:G82)</f>
-        <v>1050514</v>
-      </c>
-      <c r="H83" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="2">
+        <v>678717</v>
+      </c>
+      <c r="C83" s="2">
+        <v>663441</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <v>693365</v>
+      </c>
+      <c r="F83" s="2">
+        <v>689113</v>
+      </c>
+      <c r="G83" s="2">
+        <v>694136</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K83" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B84" s="3">
-        <f>B83+B77</f>
-        <v>4102044</v>
+        <f>+SUM(B79:B83)</f>
+        <v>1051576</v>
       </c>
       <c r="C84" s="3">
-        <f t="shared" ref="C84:L84" si="40">C83+C77</f>
-        <v>3570046</v>
+        <f t="shared" ref="C84:L84" si="41">+SUM(C79:C83)</f>
+        <v>1032781</v>
       </c>
       <c r="D84" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="40"/>
-        <v>3855007</v>
+        <f t="shared" si="41"/>
+        <v>1048044</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="40"/>
-        <v>3261073</v>
+        <f t="shared" si="41"/>
+        <v>1047165</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="40"/>
-        <v>3299813</v>
+        <f>+SUM(G80:G83)</f>
+        <v>1050514</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L84" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B84+B78</f>
+        <v>4102044</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" ref="C85:L85" si="42">C84+C78</f>
+        <v>3570046</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" si="42"/>
+        <v>3855007</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="42"/>
+        <v>3261073</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="42"/>
+        <v>3299813</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K85" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="2">
-        <v>638210</v>
-      </c>
-      <c r="C86" s="2">
-        <v>102752</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2">
-        <v>43106</v>
-      </c>
-      <c r="F86" s="2">
-        <v>10148</v>
-      </c>
-      <c r="G86" s="2">
-        <v>4021</v>
-      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
       <c r="J86" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" s="2">
-        <v>768872</v>
+        <v>638210</v>
       </c>
       <c r="C87" s="2">
-        <v>641376</v>
+        <v>102752</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2">
-        <v>1055473</v>
+        <v>43106</v>
       </c>
       <c r="F87" s="2">
-        <v>625836</v>
+        <v>10148</v>
       </c>
       <c r="G87" s="2">
-        <v>607083</v>
+        <v>4021</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>2</v>
@@ -3202,23 +3191,23 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B88" s="2">
-        <v>309546</v>
+        <v>768872</v>
       </c>
       <c r="C88" s="2">
-        <v>189947</v>
+        <v>641376</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2">
-        <v>187054</v>
+        <v>1055473</v>
       </c>
       <c r="F88" s="2">
-        <v>174651</v>
+        <v>625836</v>
       </c>
       <c r="G88" s="2">
-        <v>124424</v>
+        <v>607083</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>2</v>
@@ -3226,23 +3215,23 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B89" s="2">
-        <v>107983</v>
+        <v>309546</v>
       </c>
       <c r="C89" s="2">
-        <v>251101</v>
+        <v>189947</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
-        <v>90849</v>
+        <v>187054</v>
       </c>
       <c r="F89" s="2">
-        <v>67079</v>
+        <v>174651</v>
       </c>
       <c r="G89" s="2">
-        <v>128847</v>
+        <v>124424</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>2</v>
@@ -3250,23 +3239,23 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B90" s="2">
-        <v>85567</v>
+        <v>107983</v>
       </c>
       <c r="C90" s="2">
-        <v>27511</v>
+        <v>251101</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2">
-        <v>27561</v>
+        <v>90849</v>
       </c>
       <c r="F90" s="2">
-        <v>27617</v>
+        <v>67079</v>
       </c>
       <c r="G90" s="2">
-        <v>27671</v>
+        <v>128847</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>2</v>
@@ -3274,311 +3263,309 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B91" s="2">
-        <v>202133</v>
+        <v>85567</v>
       </c>
       <c r="C91" s="2">
-        <v>180552</v>
+        <v>27511</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2">
+        <v>27561</v>
+      </c>
+      <c r="F91" s="2">
+        <v>27617</v>
+      </c>
+      <c r="G91" s="2">
+        <v>27671</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="2">
+        <v>202133</v>
+      </c>
+      <c r="C92" s="2">
+        <v>180552</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2">
         <v>232288</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F92" s="2">
         <v>177953</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G92" s="2">
         <v>192683</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="J92" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="3">
-        <f>+SUM(B86:B91)</f>
+      <c r="B93" s="3">
+        <f>+SUM(B87:B92)</f>
         <v>2112311</v>
       </c>
-      <c r="C92" s="3">
-        <f t="shared" ref="C92:L92" si="41">+SUM(C86:C91)</f>
+      <c r="C93" s="3">
+        <f t="shared" ref="C93:L93" si="43">+SUM(C87:C92)</f>
         <v>1393239</v>
       </c>
-      <c r="D92" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="3">
-        <f t="shared" si="41"/>
+      <c r="D93" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" si="43"/>
         <v>1636331</v>
       </c>
-      <c r="F92" s="3">
-        <f t="shared" si="41"/>
+      <c r="F93" s="3">
+        <f t="shared" si="43"/>
         <v>1083284</v>
       </c>
-      <c r="G92" s="3">
-        <f t="shared" si="41"/>
+      <c r="G93" s="3">
+        <f t="shared" si="43"/>
         <v>1084729</v>
       </c>
-      <c r="H92" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K92" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="L92" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>54</v>
-      </c>
-      <c r="B93" s="2">
-        <v>35727</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2">
-        <v>31659</v>
-      </c>
-      <c r="F93" s="2">
-        <v>31223</v>
-      </c>
-      <c r="G93" s="2"/>
+      <c r="H93" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
       <c r="J93" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="K93" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B94" s="2">
-        <v>486892</v>
-      </c>
-      <c r="C94" s="2">
-        <v>576489</v>
-      </c>
+        <v>35727</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2">
-        <v>562960</v>
+        <v>31659</v>
       </c>
       <c r="F94" s="2">
-        <v>556174</v>
-      </c>
-      <c r="G94" s="2">
-        <v>549378</v>
-      </c>
+        <v>31223</v>
+      </c>
+      <c r="G94" s="2"/>
       <c r="J94" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B95" s="2">
-        <v>54391</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>486892</v>
+      </c>
+      <c r="C95" s="2">
+        <v>576489</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2">
-        <v>58581</v>
+        <v>562960</v>
       </c>
       <c r="F95" s="2">
-        <v>59149</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>556174</v>
+      </c>
+      <c r="G95" s="2">
+        <v>549378</v>
+      </c>
       <c r="J95" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B96" s="2">
-        <v>66311</v>
-      </c>
-      <c r="C96" s="2">
-        <v>161836</v>
-      </c>
+        <v>54391</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2">
+        <v>58581</v>
+      </c>
+      <c r="F96" s="2">
+        <v>59149</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="J96" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="2">
+        <v>66311</v>
+      </c>
+      <c r="C97" s="2">
+        <v>161836</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2">
         <v>49089</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F97" s="2">
         <v>55593</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G97" s="2">
         <v>145444</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" s="3">
-        <f>+SUM(B93:B96)</f>
-        <v>643321</v>
-      </c>
-      <c r="C97" s="3">
-        <f t="shared" ref="C97:L97" si="42">+SUM(C93:C96)</f>
-        <v>738325</v>
-      </c>
-      <c r="D97" s="3">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="3">
-        <f t="shared" si="42"/>
-        <v>702289</v>
-      </c>
-      <c r="F97" s="3">
-        <f t="shared" si="42"/>
-        <v>702139</v>
-      </c>
-      <c r="G97" s="3">
-        <f t="shared" si="42"/>
-        <v>694822</v>
-      </c>
-      <c r="H97" s="3">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="3">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
       <c r="J97" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="K97" s="3">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="L97" s="3">
-        <f t="shared" si="42"/>
-        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" s="3">
+        <f>+SUM(B94:B97)</f>
+        <v>643321</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" ref="C98:L98" si="44">+SUM(C94:C97)</f>
+        <v>738325</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" si="44"/>
+        <v>702289</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" si="44"/>
+        <v>702139</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="44"/>
+        <v>694822</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K98" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="3">
-        <f>+B97+B92</f>
+      <c r="B99" s="3">
+        <f>+B98+B93</f>
         <v>2755632</v>
       </c>
-      <c r="C98" s="3">
-        <f t="shared" ref="C98:L98" si="43">+C97+C92</f>
+      <c r="C99" s="3">
+        <f t="shared" ref="C99:L99" si="45">+C98+C93</f>
         <v>2131564</v>
       </c>
-      <c r="D98" s="3">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="3">
-        <f t="shared" si="43"/>
+      <c r="D99" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" si="45"/>
         <v>2338620</v>
       </c>
-      <c r="F98" s="3">
-        <f t="shared" si="43"/>
+      <c r="F99" s="3">
+        <f t="shared" si="45"/>
         <v>1785423</v>
       </c>
-      <c r="G98" s="3">
-        <f t="shared" si="43"/>
+      <c r="G99" s="3">
+        <f t="shared" si="45"/>
         <v>1779551</v>
       </c>
-      <c r="H98" s="3">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="3">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K98" s="3">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="3">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H99" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
       <c r="J99" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="K99" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>58</v>
-      </c>
-      <c r="B100" s="2">
-        <v>142</v>
-      </c>
-      <c r="C100" s="2">
-        <v>142</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2">
-        <v>142</v>
-      </c>
-      <c r="F100">
-        <v>142</v>
-      </c>
-      <c r="G100" s="2">
-        <v>143</v>
-      </c>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
       <c r="J100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B101" s="2">
-        <v>377768</v>
+        <v>142</v>
       </c>
       <c r="C101" s="2">
-        <v>380376</v>
+        <v>142</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2">
-        <v>387210</v>
-      </c>
-      <c r="F101" s="2">
-        <v>375155</v>
-      </c>
-      <c r="G101" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="F101">
+        <v>142</v>
+      </c>
+      <c r="G101" s="2">
+        <v>143</v>
+      </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="1" t="s">
@@ -3589,20 +3576,20 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B102" s="2">
-        <v>-11066</v>
+        <v>377768</v>
       </c>
       <c r="C102" s="2">
-        <v>-10270</v>
+        <v>380376</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2">
-        <v>-10261</v>
+        <v>387210</v>
       </c>
       <c r="F102" s="2">
-        <v>-631</v>
+        <v>375155</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -3615,20 +3602,20 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B103" s="2">
-        <v>16267</v>
+        <v>-11066</v>
       </c>
       <c r="C103" s="2">
-        <v>25482</v>
+        <v>-10270</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2">
-        <v>22865</v>
+        <v>-10261</v>
       </c>
       <c r="F103" s="2">
-        <v>23411</v>
+        <v>-631</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -3641,20 +3628,20 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B104" s="2">
-        <v>786420</v>
+        <v>16267</v>
       </c>
       <c r="C104" s="2">
-        <v>835256</v>
+        <v>25482</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2">
-        <v>882943</v>
+        <v>22865</v>
       </c>
       <c r="F104" s="2">
-        <v>881911</v>
+        <v>23411</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -3665,263 +3652,265 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" s="2">
+        <v>786420</v>
+      </c>
+      <c r="C105" s="2">
+        <v>835256</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2">
+        <v>882943</v>
+      </c>
+      <c r="F105" s="2">
+        <v>881911</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B105" s="3">
-        <f>+SUM(B100:B104)</f>
+      <c r="B106" s="3">
+        <f>+SUM(B101:B105)</f>
         <v>1169531</v>
       </c>
-      <c r="C105" s="3">
-        <f t="shared" ref="C105:L105" si="44">+SUM(C100:C104)</f>
+      <c r="C106" s="3">
+        <f t="shared" ref="C106:L106" si="46">+SUM(C101:C105)</f>
         <v>1230986</v>
       </c>
-      <c r="D105" s="3">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="E105" s="3">
-        <f t="shared" si="44"/>
+      <c r="D106" s="3">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="46"/>
         <v>1282899</v>
       </c>
-      <c r="F105" s="3">
-        <f>+SUM(F100:F104)</f>
+      <c r="F106" s="3">
+        <f>+SUM(F101:F105)</f>
         <v>1279988</v>
       </c>
-      <c r="G105" s="3">
-        <f t="shared" si="44"/>
+      <c r="G106" s="3">
+        <f t="shared" si="46"/>
         <v>143</v>
       </c>
-      <c r="H105" s="3">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="3">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K105" s="3">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="L105" s="3">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="H106" s="3">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="3">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K106" s="3">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="3">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B107" s="2">
         <v>176821</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C107" s="2">
         <v>207496</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2">
+      <c r="D107" s="2"/>
+      <c r="E107" s="2">
         <v>233488</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F107" s="2">
         <v>195662</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B107" s="3">
-        <f>+B105+B106</f>
-        <v>1346352</v>
-      </c>
-      <c r="C107" s="3">
-        <f>+C105+C106</f>
-        <v>1438482</v>
-      </c>
-      <c r="D107" s="3">
-        <f t="shared" ref="D107:L107" si="45">+D105+D106</f>
-        <v>0</v>
-      </c>
-      <c r="E107" s="3">
-        <f t="shared" si="45"/>
-        <v>1516387</v>
-      </c>
-      <c r="F107" s="3">
-        <f t="shared" si="45"/>
-        <v>1475650</v>
-      </c>
-      <c r="G107" s="3">
-        <f t="shared" si="45"/>
-        <v>143</v>
-      </c>
-      <c r="H107" s="3">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="3">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
       <c r="J107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K107" s="3">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="L107" s="3">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
     </row>
     <row r="108" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="3">
+        <f>+B106+B107</f>
+        <v>1346352</v>
+      </c>
+      <c r="C108" s="3">
+        <f>+C106+C107</f>
+        <v>1438482</v>
+      </c>
+      <c r="D108" s="3">
+        <f t="shared" ref="D108:L108" si="47">+D106+D107</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <f t="shared" si="47"/>
+        <v>1516387</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" si="47"/>
+        <v>1475650</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="47"/>
+        <v>143</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K108" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="L108" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B108" s="3">
-        <f>+B107+B98</f>
+      <c r="B109" s="3">
+        <f>+B108+B99</f>
         <v>4101984</v>
       </c>
-      <c r="C108" s="3">
-        <f t="shared" ref="C108:L108" si="46">+C107+C98</f>
+      <c r="C109" s="3">
+        <f t="shared" ref="C109:L109" si="48">+C108+C99</f>
         <v>3570046</v>
       </c>
-      <c r="D108" s="3">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E108" s="3">
-        <f t="shared" si="46"/>
+      <c r="D109" s="3">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <f t="shared" si="48"/>
         <v>3855007</v>
       </c>
-      <c r="F108" s="3">
-        <f t="shared" si="46"/>
+      <c r="F109" s="3">
+        <f t="shared" si="48"/>
         <v>3261073</v>
       </c>
-      <c r="G108" s="3">
-        <f t="shared" si="46"/>
+      <c r="G109" s="3">
+        <f t="shared" si="48"/>
         <v>1779694</v>
       </c>
-      <c r="H108" s="3">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="3">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K108" s="3">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="L108" s="3">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+      <c r="H109" s="3">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="3">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
       <c r="J109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
+      <c r="K109" s="3">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="3">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="1" t="str">
-        <f>B70</f>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="1" t="str">
+        <f>B71</f>
         <v>Q123</v>
       </c>
-      <c r="C110" s="1" t="str">
-        <f t="shared" ref="C110:L110" si="47">C70</f>
+      <c r="C111" s="1" t="str">
+        <f t="shared" ref="C111:L111" si="49">C71</f>
         <v>Q223</v>
       </c>
-      <c r="D110" s="1" t="str">
-        <f t="shared" si="47"/>
+      <c r="D111" s="1" t="str">
+        <f t="shared" si="49"/>
         <v>Q323</v>
       </c>
-      <c r="E110" s="1" t="str">
-        <f t="shared" si="47"/>
+      <c r="E111" s="1" t="str">
+        <f t="shared" si="49"/>
         <v>Q423</v>
       </c>
-      <c r="F110" s="1" t="str">
-        <f t="shared" si="47"/>
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="49"/>
         <v>Q124</v>
       </c>
-      <c r="G110" s="1" t="str">
-        <f t="shared" si="47"/>
+      <c r="G111" s="1" t="str">
+        <f t="shared" si="49"/>
         <v>Q224</v>
       </c>
-      <c r="H110" s="1" t="str">
-        <f t="shared" si="47"/>
+      <c r="H111" s="1" t="str">
+        <f t="shared" si="49"/>
         <v>Q324</v>
       </c>
-      <c r="I110" s="1" t="str">
-        <f t="shared" si="47"/>
+      <c r="I111" s="1" t="str">
+        <f t="shared" si="49"/>
         <v>Q424</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K110" s="1">
-        <f t="shared" si="47"/>
+      <c r="J111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K111" s="1">
+        <f t="shared" si="49"/>
         <v>2023</v>
       </c>
-      <c r="L110" s="1">
-        <f t="shared" si="47"/>
+      <c r="L111" s="1">
+        <f t="shared" si="49"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>74</v>
-      </c>
-      <c r="B112" s="2">
-        <v>1112155</v>
-      </c>
-      <c r="C112" s="2">
-        <v>707980</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2">
-        <v>886725</v>
-      </c>
-      <c r="F112" s="2">
-        <v>669373</v>
-      </c>
-      <c r="G112" s="2">
-        <v>452314</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>2</v>
@@ -3929,23 +3918,23 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B113" s="2">
-        <v>17641</v>
+        <v>1112155</v>
       </c>
       <c r="C113" s="2">
-        <v>19564</v>
+        <v>707980</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2">
-        <v>21705</v>
+        <v>886725</v>
       </c>
       <c r="F113" s="2">
-        <v>14454</v>
+        <v>669373</v>
       </c>
       <c r="G113" s="2">
-        <v>14085</v>
+        <v>452314</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>2</v>
@@ -3953,23 +3942,23 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B114" s="2">
-        <v>147275</v>
+        <v>17641</v>
       </c>
       <c r="C114" s="2">
-        <v>142978</v>
+        <v>19564</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2">
-        <v>104349</v>
+        <v>21705</v>
       </c>
       <c r="F114" s="2">
-        <v>104878</v>
+        <v>14454</v>
       </c>
       <c r="G114" s="2">
-        <v>108407</v>
+        <v>14085</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>2</v>
@@ -3977,126 +3966,124 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B115" s="2">
-        <v>274030</v>
+        <v>147275</v>
       </c>
       <c r="C115" s="2">
-        <v>120267</v>
+        <v>142978</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2">
+        <v>104349</v>
+      </c>
+      <c r="F115" s="2">
+        <v>104878</v>
+      </c>
+      <c r="G115" s="2">
+        <v>108407</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" s="2">
+        <v>274030</v>
+      </c>
+      <c r="C116" s="2">
+        <v>120267</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2">
         <v>153921</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F116" s="2">
         <v>205838</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G116" s="2">
         <v>111734</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
+      <c r="J116" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B116" s="3">
-        <f>+SUM(B112:B115)</f>
+      <c r="B117" s="3">
+        <f>+SUM(B113:B116)</f>
         <v>1551101</v>
       </c>
-      <c r="C116" s="3">
-        <f t="shared" ref="C116:H116" si="48">+SUM(C112:C115)</f>
+      <c r="C117" s="3">
+        <f t="shared" ref="C117:H117" si="50">+SUM(C113:C116)</f>
         <v>990789</v>
       </c>
-      <c r="D116" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="E116" s="3">
-        <f t="shared" si="48"/>
+      <c r="D117" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <f t="shared" si="50"/>
         <v>1166700</v>
       </c>
-      <c r="F116" s="3">
-        <f t="shared" si="48"/>
+      <c r="F117" s="3">
+        <f t="shared" si="50"/>
         <v>994543</v>
       </c>
-      <c r="G116" s="3">
-        <f t="shared" si="48"/>
+      <c r="G117" s="3">
+        <f t="shared" si="50"/>
         <v>686540</v>
       </c>
-      <c r="H116" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="I116" s="3">
-        <f t="shared" ref="I116" si="49">+SUM(I112:I115)</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J117" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
+      <c r="H117" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="3">
+        <f t="shared" ref="I117" si="51">+SUM(I113:I116)</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J118" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>79</v>
-      </c>
-      <c r="B119" s="2">
-        <v>38000</v>
-      </c>
-      <c r="C119" s="2">
-        <v>31838</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2">
-        <v>30912</v>
-      </c>
-      <c r="F119" s="2">
-        <v>30626</v>
-      </c>
-      <c r="G119" s="2">
-        <v>31008</v>
-      </c>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
       <c r="J119" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B120" s="2">
-        <v>91503</v>
+        <v>38000</v>
       </c>
       <c r="C120" s="2">
-        <v>81470</v>
+        <v>31838</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2">
-        <v>82438</v>
+        <v>30912</v>
       </c>
       <c r="F120" s="2">
-        <v>82541</v>
+        <v>30626</v>
       </c>
       <c r="G120" s="2">
-        <v>84019</v>
+        <v>31008</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -4106,23 +4093,23 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B121" s="2">
-        <v>362451</v>
+        <v>91503</v>
       </c>
       <c r="C121" s="2">
-        <v>349773</v>
+        <v>81470</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2">
-        <v>365744</v>
+        <v>82438</v>
       </c>
       <c r="F121" s="2">
-        <v>366790</v>
+        <v>82541</v>
       </c>
       <c r="G121" s="2">
-        <v>370877</v>
+        <v>84019</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -4132,23 +4119,23 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B122" s="2">
-        <v>917269</v>
+        <v>362451</v>
       </c>
       <c r="C122" s="2">
-        <v>891368</v>
+        <v>349773</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2">
-        <v>951544</v>
+        <v>365744</v>
       </c>
       <c r="F122" s="2">
-        <v>959920</v>
+        <v>366790</v>
       </c>
       <c r="G122" s="2">
-        <v>977948</v>
+        <v>370877</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -4158,23 +4145,23 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B123" s="2">
-        <v>48158</v>
+        <v>917269</v>
       </c>
       <c r="C123" s="2">
-        <v>56578</v>
+        <v>891368</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2">
-        <v>36541</v>
+        <v>951544</v>
       </c>
       <c r="F123" s="2">
-        <v>45327</v>
+        <v>959920</v>
       </c>
       <c r="G123" s="2">
-        <v>48771</v>
+        <v>977948</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -4184,23 +4171,23 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B124" s="2">
-        <v>778664</v>
+        <v>48158</v>
       </c>
       <c r="C124" s="2">
-        <v>747586</v>
+        <v>56578</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2">
-        <v>773814</v>
+        <v>36541</v>
       </c>
       <c r="F124" s="2">
-        <v>796091</v>
+        <v>45327</v>
       </c>
       <c r="G124" s="2">
-        <v>818487</v>
+        <v>48771</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -4208,47 +4195,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="2">
+        <v>778664</v>
+      </c>
+      <c r="C125" s="2">
+        <v>747586</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2">
+        <v>773814</v>
+      </c>
+      <c r="F125" s="2">
+        <v>796091</v>
+      </c>
+      <c r="G125" s="2">
+        <v>818487</v>
+      </c>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B125" s="3">
-        <f>+SUM(B119:B123)-B124</f>
+      <c r="B126" s="3">
+        <f>+SUM(B120:B124)-B125</f>
         <v>678717</v>
       </c>
-      <c r="C125" s="3">
-        <f t="shared" ref="C125:H125" si="50">+SUM(C119:C123)-C124</f>
+      <c r="C126" s="3">
+        <f t="shared" ref="C126:H126" si="52">+SUM(C120:C124)-C125</f>
         <v>663441</v>
       </c>
-      <c r="D125" s="3">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="E125" s="3">
-        <f t="shared" si="50"/>
+      <c r="D126" s="3">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="E126" s="3">
+        <f t="shared" si="52"/>
         <v>693365</v>
       </c>
-      <c r="F125" s="3">
-        <f t="shared" si="50"/>
+      <c r="F126" s="3">
+        <f t="shared" si="52"/>
         <v>689113</v>
       </c>
-      <c r="G125" s="3">
-        <f t="shared" si="50"/>
+      <c r="G126" s="3">
+        <f t="shared" si="52"/>
         <v>694136</v>
       </c>
-      <c r="H125" s="3">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="I125" s="3">
-        <f t="shared" ref="I125" si="51">+SUM(I119:I123)-I124</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="1" t="s">
+      <c r="H126" s="3">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="3">
+        <f t="shared" ref="I126" si="53">+SUM(I120:I124)-I125</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{8764A514-1095-4EA3-9FCA-304DB6D5B28D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/ANDE.xlsx
+++ b/ANDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B5E104-097C-4080-B6F1-464780C11A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D63C4F-37C6-4500-BE1A-044AC7AE6C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18410" yWindow="3950" windowWidth="16130" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22760" yWindow="2430" windowWidth="13490" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -470,12 +470,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -491,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -499,6 +505,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -832,7 +840,9 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,7 +1128,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3635691</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
@@ -1134,7 +1144,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2620988</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
@@ -1154,7 +1164,9 @@
       <c r="C14" s="2">
         <v>2696810</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>2639059</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
         <v>1893859</v>
@@ -1162,7 +1174,9 @@
       <c r="G14" s="2">
         <v>1757741</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>1747715</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1" t="s">
         <v>2</v>
@@ -1178,7 +1192,9 @@
       <c r="C15" s="2">
         <v>877781</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>868099</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
         <v>657039</v>
@@ -1186,7 +1202,9 @@
       <c r="G15" s="2">
         <v>686127</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>745206</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1" t="s">
         <v>2</v>
@@ -1202,7 +1220,9 @@
       <c r="C16" s="2">
         <v>445592</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>128533</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
         <v>167319</v>
@@ -1210,7 +1230,9 @@
       <c r="G16" s="2">
         <v>351337</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>128067</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
         <v>2</v>
@@ -1235,7 +1257,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>38385</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="3"/>
@@ -1251,7 +1273,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>62192</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ref="I18" si="4">+SUM(I19:I22)</f>
@@ -1268,11 +1290,17 @@
       <c r="B19" s="2">
         <v>39364</v>
       </c>
+      <c r="D19" s="2">
+        <v>8073</v>
+      </c>
       <c r="F19" s="2">
         <v>5924</v>
       </c>
       <c r="G19" s="2">
         <v>5424</v>
+      </c>
+      <c r="H19" s="2">
+        <v>26266</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>2</v>
@@ -1285,11 +1313,17 @@
       <c r="B20" s="2">
         <v>-82513</v>
       </c>
+      <c r="D20" s="2">
+        <v>47096</v>
+      </c>
       <c r="F20" s="2">
         <v>22791</v>
       </c>
       <c r="G20" s="2">
         <v>39200</v>
+      </c>
+      <c r="H20" s="2">
+        <v>52583</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>2</v>
@@ -1302,11 +1336,17 @@
       <c r="B21" s="2">
         <v>-10438</v>
       </c>
+      <c r="D21" s="2">
+        <v>-8452</v>
+      </c>
       <c r="F21" s="2">
         <v>-1850</v>
       </c>
       <c r="G21" s="2">
         <v>23419</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-6132</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>2</v>
@@ -1319,11 +1359,17 @@
       <c r="B22" s="2">
         <v>-11414</v>
       </c>
+      <c r="D22" s="2">
+        <v>-8332</v>
+      </c>
       <c r="F22" s="2">
         <v>-12897</v>
       </c>
       <c r="G22" s="2">
         <v>-10697</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-10525</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>2</v>
@@ -1350,7 +1396,7 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>546270</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="5"/>
@@ -1366,7 +1412,7 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>640619</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" ref="I24" si="6">+SUM(I25:I28)</f>
@@ -1386,7 +1432,9 @@
       <c r="C25" s="2">
         <v>198633</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>190368</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
         <v>185826</v>
@@ -1394,6 +1442,9 @@
       <c r="G25" s="2">
         <v>187050</v>
       </c>
+      <c r="H25" s="2">
+        <v>212336</v>
+      </c>
       <c r="J25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1408,7 +1459,9 @@
       <c r="C26" s="2">
         <v>9562</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>11786</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
         <v>12291</v>
@@ -1416,6 +1469,9 @@
       <c r="G26" s="2">
         <v>13494</v>
       </c>
+      <c r="H26" s="2">
+        <v>12142</v>
+      </c>
       <c r="J26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1486,9 @@
       <c r="C27" s="2">
         <v>303701</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>343619</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
         <v>370983</v>
@@ -1438,6 +1496,9 @@
       <c r="G27" s="2">
         <v>404589</v>
       </c>
+      <c r="H27" s="2">
+        <v>415505</v>
+      </c>
       <c r="J27" s="1" t="s">
         <v>2</v>
       </c>
@@ -1452,13 +1513,18 @@
       <c r="C28" s="2">
         <v>508</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>497</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
         <v>548</v>
       </c>
       <c r="G28" s="2">
         <v>553</v>
+      </c>
+      <c r="H28" s="2">
+        <v>636</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>2</v>
@@ -1485,7 +1551,7 @@
       </c>
       <c r="D30" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="7"/>
@@ -1501,7 +1567,7 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" ref="I30" si="8">+SUM(I31:I33)</f>
@@ -1521,11 +1587,17 @@
       <c r="C31">
         <v>674</v>
       </c>
+      <c r="D31" s="2">
+        <v>209</v>
+      </c>
       <c r="F31" s="2">
         <v>199</v>
       </c>
       <c r="G31" s="2">
         <v>578</v>
+      </c>
+      <c r="H31" s="2">
+        <v>205</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>2</v>
@@ -1541,11 +1613,17 @@
       <c r="C32">
         <v>141</v>
       </c>
+      <c r="D32" s="2">
+        <v>59</v>
+      </c>
       <c r="F32" s="2">
         <v>91</v>
       </c>
       <c r="G32" s="2">
         <v>117</v>
+      </c>
+      <c r="H32" s="2">
+        <v>62</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>2</v>
@@ -1561,11 +1639,17 @@
       <c r="C33">
         <v>46</v>
       </c>
+      <c r="D33" s="2">
+        <v>25</v>
+      </c>
       <c r="F33" s="2">
         <v>64</v>
       </c>
       <c r="G33" s="2">
         <v>57</v>
+      </c>
+      <c r="H33" s="2">
+        <v>39</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>2</v>
@@ -1628,15 +1712,15 @@
         <v>-0.29965206977773584</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" ref="G36:I36" si="10">(G40-C40)/C40</f>
+        <f t="shared" ref="G36" si="10">(G40-C40)/C40</f>
         <v>-0.30470702453097287</v>
       </c>
-      <c r="H36" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="H36" s="4">
+        <f>(H40-D40)/D40</f>
+        <v>-0.2790949505884851</v>
       </c>
       <c r="I36" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f>(I40-E40)/E40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -1648,19 +1732,19 @@
         <v>107</v>
       </c>
       <c r="B37" s="4" t="e">
-        <f t="shared" ref="B37:E37" si="11">(B40-A40)/B40</f>
+        <f t="shared" ref="B37:D37" si="11">(B40-A40)/B40</f>
         <v>#VALUE!</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="11"/>
         <v>3.456185949744079E-2</v>
       </c>
-      <c r="D37" s="4" t="e">
+      <c r="D37" s="4">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>-0.10575486200559948</v>
       </c>
       <c r="E37" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f>(E40-D40)/E40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="4">
@@ -1668,15 +1752,15 @@
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" ref="G37:I37" si="12">(G40-F40)/G40</f>
+        <f t="shared" ref="G37" si="12">(G40-F40)/G40</f>
         <v>2.754288147023206E-2</v>
       </c>
-      <c r="H37" s="4" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="H37" s="4">
+        <f>(H40-G40)/H40</f>
+        <v>-6.6469972392090307E-2</v>
       </c>
       <c r="I37" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f>(I40-H40)/I40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -1699,9 +1783,9 @@
         <f t="shared" ref="G38:I38" si="13">(G42-C42)/C42</f>
         <v>-0.20981629922004894</v>
       </c>
-      <c r="H38" s="4" t="e">
+      <c r="H38" s="4">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.12316979600636647</v>
       </c>
       <c r="I38" s="4" t="e">
         <f t="shared" si="13"/>
@@ -1725,11 +1809,11 @@
       </c>
       <c r="D39" s="4">
         <f t="shared" si="14"/>
+        <v>-0.28943348788169615</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="14"/>
         <v>-1</v>
-      </c>
-      <c r="E39" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="F39" s="4" t="e">
         <f>(F42-E42)/E42</f>
@@ -1741,11 +1825,11 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" si="15"/>
+        <v>1.0001653637146392E-2</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="15"/>
         <v>-1</v>
-      </c>
-      <c r="I39" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>2</v>
@@ -1761,7 +1845,9 @@
       <c r="C40" s="2">
         <v>4020183</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>3635691</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2">
         <v>2718217</v>
@@ -1769,7 +1855,9 @@
       <c r="G40" s="2">
         <v>2795205</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <v>2620988</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="1" t="s">
         <v>2</v>
@@ -1785,7 +1873,9 @@
       <c r="C41" s="2">
         <v>3798246</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>3477990</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2">
         <v>2589897</v>
@@ -1793,7 +1883,9 @@
       <c r="G41" s="2">
         <v>2619834</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>2443863</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="1" t="s">
         <v>2</v>
@@ -1808,15 +1900,15 @@
         <v>148011</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" ref="C42:E42" si="16">C40-C41</f>
+        <f t="shared" ref="C42:D42" si="16">C40-C41</f>
         <v>221937</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>157701</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="16"/>
+        <f>E40-E41</f>
         <v>0</v>
       </c>
       <c r="F42" s="3">
@@ -1828,11 +1920,11 @@
         <v>175371</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" ref="H42:I42" si="17">H40-H41</f>
-        <v>0</v>
+        <f>H40-H41</f>
+        <v>177125</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="I42" si="17">I40-I41</f>
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -1849,7 +1941,9 @@
       <c r="C43" s="2">
         <v>116007</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>126306</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2">
         <v>119358</v>
@@ -1857,7 +1951,9 @@
       <c r="G43" s="2">
         <v>116614</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <v>120494</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="1" t="s">
         <v>2</v>
@@ -1873,7 +1969,9 @@
       <c r="C44" s="2">
         <v>0</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2">
         <v>0</v>
@@ -1881,7 +1979,9 @@
       <c r="G44" s="2">
         <v>0</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="1" t="s">
         <v>2</v>
@@ -1897,7 +1997,9 @@
       <c r="C45" s="2">
         <v>13953</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2">
+        <v>8188</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2">
         <v>6522</v>
@@ -1905,7 +2007,9 @@
       <c r="G45" s="2">
         <v>6611</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>8361</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="1" t="s">
         <v>2</v>
@@ -1925,7 +2029,7 @@
       </c>
       <c r="D46" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>134494</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="18"/>
@@ -1941,7 +2045,7 @@
       </c>
       <c r="H46" s="3">
         <f t="shared" ref="H46:I46" si="19">SUM(H43:H45)</f>
-        <v>0</v>
+        <v>128855</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="19"/>
@@ -1961,7 +2065,9 @@
       <c r="C47" s="2">
         <v>12441</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2">
+        <v>15178</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2">
         <v>11528</v>
@@ -1969,7 +2075,9 @@
       <c r="G47" s="2">
         <v>5200</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <v>13922</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="1" t="s">
         <v>2</v>
@@ -1989,7 +2097,7 @@
       </c>
       <c r="D48" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>38385</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="20"/>
@@ -2005,7 +2113,7 @@
       </c>
       <c r="H48" s="3">
         <f t="shared" ref="H48:I48" si="21">+H42-H46+H47</f>
-        <v>0</v>
+        <v>62192</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="21"/>
@@ -2025,7 +2133,9 @@
       <c r="C49" s="2">
         <v>21732</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2">
+        <v>7862</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2">
         <v>1303</v>
@@ -2033,7 +2143,9 @@
       <c r="G49" s="2">
         <v>4876</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>10731</v>
+      </c>
       <c r="I49" s="2"/>
       <c r="J49" s="1" t="s">
         <v>2</v>
@@ -2053,7 +2165,7 @@
       </c>
       <c r="D50" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>30523</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="22"/>
@@ -2069,7 +2181,7 @@
       </c>
       <c r="H50" s="3">
         <f t="shared" ref="H50:I50" si="23">H48-H49</f>
-        <v>0</v>
+        <v>51461</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="23"/>
@@ -2089,7 +2201,9 @@
       <c r="C51" s="2">
         <v>27640</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>20815</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2">
         <v>7084</v>
@@ -2097,7 +2211,9 @@
       <c r="G51" s="2">
         <v>16494</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>24096</v>
+      </c>
       <c r="I51" s="2"/>
       <c r="J51" s="1" t="s">
         <v>2</v>
@@ -2117,7 +2233,7 @@
       </c>
       <c r="D52" s="3">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>9708</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="24"/>
@@ -2133,7 +2249,7 @@
       </c>
       <c r="H52" s="3">
         <f t="shared" ref="H52:I52" si="25">H50-H51</f>
-        <v>0</v>
+        <v>27365</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="25"/>
@@ -2158,7 +2274,9 @@
       <c r="C54" s="2">
         <v>33744</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2">
+        <v>33752</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2">
         <v>33932</v>
@@ -2166,6 +2284,9 @@
       <c r="G54" s="2">
         <v>34060</v>
       </c>
+      <c r="H54" s="2">
+        <v>34069</v>
+      </c>
       <c r="J54" s="1" t="s">
         <v>2</v>
       </c>
@@ -2180,7 +2301,9 @@
       <c r="C55" s="2">
         <v>34165</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2">
+        <v>34270</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2">
         <v>34243</v>
@@ -2188,6 +2311,9 @@
       <c r="G55" s="2">
         <v>34339</v>
       </c>
+      <c r="H55" s="2">
+        <v>34358</v>
+      </c>
       <c r="J55" s="1" t="s">
         <v>2</v>
       </c>
@@ -2204,9 +2330,9 @@
         <f t="shared" ref="C56:E56" si="26">C52/C54</f>
         <v>1.6312825983878616</v>
       </c>
-      <c r="D56" s="4" t="e">
+      <c r="D56" s="4">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>0.28762739985778618</v>
       </c>
       <c r="E56" s="4" t="e">
         <f t="shared" si="26"/>
@@ -2220,9 +2346,9 @@
         <f t="shared" si="27"/>
         <v>1.0562536699941281</v>
       </c>
-      <c r="H56" s="4" t="e">
+      <c r="H56" s="4">
         <f t="shared" ref="H56:I56" si="28">H52/H54</f>
-        <v>#DIV/0!</v>
+        <v>0.80322287123191172</v>
       </c>
       <c r="I56" s="4" t="e">
         <f t="shared" si="28"/>
@@ -2252,9 +2378,9 @@
         <f t="shared" ref="C57:G57" si="30">C52/C55</f>
         <v>1.6111810332211327</v>
       </c>
-      <c r="D57" s="4" t="e">
+      <c r="D57" s="4">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.28327983659177125</v>
       </c>
       <c r="E57" s="4" t="e">
         <f t="shared" si="30"/>
@@ -2268,9 +2394,9 @@
         <f t="shared" si="30"/>
         <v>1.0476717434986458</v>
       </c>
-      <c r="H57" s="4" t="e">
+      <c r="H57" s="4">
         <f t="shared" ref="H57:I57" si="31">H52/H55</f>
-        <v>#DIV/0!</v>
+        <v>0.79646661621747483</v>
       </c>
       <c r="I57" s="4" t="e">
         <f t="shared" si="31"/>
@@ -2307,7 +2433,7 @@
       </c>
       <c r="D59" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>30523</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" si="33"/>
@@ -2323,7 +2449,7 @@
       </c>
       <c r="H59" s="3">
         <f t="shared" ref="H59:L59" si="34">H50</f>
-        <v>0</v>
+        <v>51461</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="34"/>
@@ -2352,7 +2478,10 @@
         <f>23569-B60</f>
         <v>82686</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2">
+        <f>54092-C60-B60</f>
+        <v>30523</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2">
         <v>12665</v>
@@ -2361,16 +2490,20 @@
         <f>65135-F60</f>
         <v>52470</v>
       </c>
+      <c r="H60" s="2">
+        <f>116596-G60-F60</f>
+        <v>51461</v>
+      </c>
       <c r="J60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" ref="K60:K69" si="35">SUM(B60:E60)</f>
-        <v>23569</v>
+        <v>54092</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" ref="L60:L69" si="36">SUM(F60:I60)</f>
-        <v>65135</v>
+        <v>116596</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -2384,7 +2517,10 @@
         <f>62585-B61</f>
         <v>59365</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2">
+        <f>93800-C61-B61</f>
+        <v>31215</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2">
         <v>30949</v>
@@ -2393,16 +2529,20 @@
         <f>61218-F61</f>
         <v>30269</v>
       </c>
+      <c r="H61" s="2">
+        <f>91626-G61-F61</f>
+        <v>30408</v>
+      </c>
       <c r="J61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="35"/>
-        <v>62585</v>
+        <v>93800</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="36"/>
-        <v>61218</v>
+        <v>91626</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -2416,12 +2556,19 @@
         <f>87156-B62</f>
         <v>0</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <f>87156-C62-B62</f>
+        <v>0</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2">
         <v>0</v>
       </c>
       <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <f>0-G62-F62</f>
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
@@ -2447,7 +2594,10 @@
         <f>952-B63</f>
         <v>3182</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2">
+        <f>1347-C63-B63</f>
+        <v>395</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2">
         <v>4795</v>
@@ -2456,16 +2606,20 @@
         <f>10821-F63</f>
         <v>6026</v>
       </c>
+      <c r="H63" s="2">
+        <f>15146-G63-F63</f>
+        <v>4325</v>
+      </c>
       <c r="J63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="35"/>
-        <v>952</v>
+        <v>1347</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="36"/>
-        <v>10821</v>
+        <v>15146</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -2479,7 +2633,10 @@
         <f>207867-B64</f>
         <v>82754</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2">
+        <f>406263-C64-B64</f>
+        <v>198396</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2">
         <v>57725</v>
@@ -2488,16 +2645,20 @@
         <f>15284-F64</f>
         <v>-42441</v>
       </c>
+      <c r="H64" s="2">
+        <f>3498-G64-F64</f>
+        <v>-11786</v>
+      </c>
       <c r="J64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="35"/>
-        <v>207867</v>
+        <v>406263</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="36"/>
-        <v>15284</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -2511,7 +2672,10 @@
         <f>734855-B65</f>
         <v>556845</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2">
+        <f>748118-C65-B65</f>
+        <v>13263</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2">
         <v>169083</v>
@@ -2520,16 +2684,20 @@
         <f>477723-F65</f>
         <v>308640</v>
       </c>
+      <c r="H65" s="2">
+        <f>278947-G65-F65</f>
+        <v>-198776</v>
+      </c>
       <c r="J65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="35"/>
-        <v>734855</v>
+        <v>748118</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="36"/>
-        <v>477723</v>
+        <v>278947</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -2543,7 +2711,10 @@
         <f>102753-B66</f>
         <v>19605</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <f>99479-C66-B66</f>
+        <v>-3274</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2">
         <v>-28498</v>
@@ -2552,16 +2723,20 @@
         <f>36010-F66</f>
         <v>64508</v>
       </c>
+      <c r="H66" s="2">
+        <f>49327-G66-F66</f>
+        <v>13317</v>
+      </c>
       <c r="J66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="35"/>
-        <v>102753</v>
+        <v>99479</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="36"/>
-        <v>36010</v>
+        <v>49327</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -2575,7 +2750,10 @@
         <f>-1247-B67</f>
         <v>16296</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2">
+        <f>2048-C67-B67</f>
+        <v>3295</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2">
         <v>1923</v>
@@ -2584,16 +2762,20 @@
         <f>-50587-F67</f>
         <v>-52510</v>
       </c>
+      <c r="H67" s="2">
+        <f>-59376-G67-F67</f>
+        <v>-8789</v>
+      </c>
       <c r="J67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="35"/>
-        <v>-1247</v>
+        <v>2048</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="36"/>
-        <v>-50587</v>
+        <v>-59376</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -2607,7 +2789,10 @@
         <f>-1011086-B68</f>
         <v>-250794</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2">
+        <f>-796216-C68-B68</f>
+        <v>214870</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2">
         <v>-488269</v>
@@ -2616,16 +2801,20 @@
         <f>-550797-F68</f>
         <v>-62528</v>
       </c>
+      <c r="H68" s="2">
+        <f>-433069-G68-F68</f>
+        <v>117728</v>
+      </c>
       <c r="J68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="35"/>
-        <v>-1011086</v>
+        <v>-796216</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="36"/>
-        <v>-550797</v>
+        <v>-433069</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2642,7 +2831,7 @@
       </c>
       <c r="D69" s="3">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>488683</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="37"/>
@@ -2658,7 +2847,7 @@
       </c>
       <c r="H69" s="3">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>-2112</v>
       </c>
       <c r="I69" s="3">
         <f t="shared" si="38"/>
@@ -2669,11 +2858,11 @@
       </c>
       <c r="K69" s="3">
         <f t="shared" si="35"/>
-        <v>207404</v>
+        <v>696087</v>
       </c>
       <c r="L69" s="3">
         <f t="shared" si="36"/>
-        <v>64807</v>
+        <v>62695</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -2746,7 +2935,9 @@
       <c r="C73" s="2">
         <v>96293</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2">
+        <v>418055</v>
+      </c>
       <c r="E73" s="2">
         <v>643854</v>
       </c>
@@ -2756,7 +2947,9 @@
       <c r="G73" s="2">
         <v>530386</v>
       </c>
-      <c r="H73" s="2"/>
+      <c r="H73" s="2">
+        <v>454065</v>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73" s="1" t="s">
         <v>2</v>
@@ -2774,7 +2967,9 @@
       <c r="C74" s="2">
         <v>1030271</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2">
+        <v>816686</v>
+      </c>
       <c r="E74" s="2">
         <v>762549</v>
       </c>
@@ -2784,7 +2979,9 @@
       <c r="G74" s="2">
         <v>743550</v>
       </c>
-      <c r="H74" s="2"/>
+      <c r="H74" s="2">
+        <v>756618</v>
+      </c>
       <c r="I74" s="2"/>
       <c r="J74" s="1" t="s">
         <v>2</v>
@@ -2802,7 +2999,9 @@
       <c r="C75" s="2">
         <v>990789</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>985292</v>
+      </c>
       <c r="E75" s="2">
         <v>1166700</v>
       </c>
@@ -2812,7 +3011,9 @@
       <c r="G75" s="2">
         <v>686540</v>
       </c>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2">
+        <v>884339</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75" s="1" t="s">
         <v>2</v>
@@ -2830,7 +3031,9 @@
       <c r="C76" s="2">
         <v>347684</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2">
+        <v>239595</v>
+      </c>
       <c r="E76" s="2">
         <v>178083</v>
       </c>
@@ -2840,7 +3043,9 @@
       <c r="G76" s="2">
         <v>180189</v>
       </c>
-      <c r="H76" s="2"/>
+      <c r="H76" s="2">
+        <v>122326</v>
+      </c>
       <c r="I76" s="2"/>
       <c r="J76" s="1" t="s">
         <v>2</v>
@@ -2858,7 +3063,9 @@
       <c r="C77" s="2">
         <v>72228</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2">
+        <v>67471</v>
+      </c>
       <c r="E77" s="2">
         <v>55777</v>
       </c>
@@ -2868,7 +3075,9 @@
       <c r="G77" s="2">
         <v>108634</v>
       </c>
-      <c r="H77" s="2"/>
+      <c r="H77" s="2">
+        <v>113726</v>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="1" t="s">
         <v>2</v>
@@ -2890,7 +3099,7 @@
       </c>
       <c r="D78" s="3">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>2527099</v>
       </c>
       <c r="E78" s="3">
         <f t="shared" si="40"/>
@@ -2906,7 +3115,7 @@
       </c>
       <c r="H78" s="3">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>2331074</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" si="40"/>
@@ -2939,7 +3148,6 @@
       <c r="F79" s="2">
         <v>127856</v>
       </c>
-      <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="1" t="s">
         <v>2</v>
@@ -3005,7 +3213,9 @@
       <c r="C82" s="2">
         <v>369340</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2">
+        <v>380815</v>
+      </c>
       <c r="E82" s="2">
         <v>87010</v>
       </c>
@@ -3015,7 +3225,9 @@
       <c r="G82" s="2">
         <v>356378</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" s="2">
+        <v>347274</v>
+      </c>
       <c r="I82" s="2"/>
       <c r="J82" s="1" t="s">
         <v>2</v>
@@ -3033,7 +3245,9 @@
       <c r="C83" s="2">
         <v>663441</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2">
+        <v>680188</v>
+      </c>
       <c r="E83" s="2">
         <v>693365</v>
       </c>
@@ -3043,7 +3257,9 @@
       <c r="G83" s="2">
         <v>694136</v>
       </c>
-      <c r="H83" s="2"/>
+      <c r="H83" s="2">
+        <v>709951</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="1" t="s">
         <v>2</v>
@@ -3065,7 +3281,7 @@
       </c>
       <c r="D84" s="3">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1061003</v>
       </c>
       <c r="E84" s="3">
         <f t="shared" si="41"/>
@@ -3080,8 +3296,8 @@
         <v>1050514</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f>+SUM(H80:H83)</f>
+        <v>1057225</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" si="41"/>
@@ -3113,7 +3329,7 @@
       </c>
       <c r="D85" s="3">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3588102</v>
       </c>
       <c r="E85" s="3">
         <f t="shared" si="42"/>
@@ -3129,7 +3345,7 @@
       </c>
       <c r="H85" s="3">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3388299</v>
       </c>
       <c r="I85" s="3">
         <f t="shared" si="42"/>
@@ -3175,7 +3391,9 @@
       <c r="C87" s="2">
         <v>102752</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2">
+        <v>14138</v>
+      </c>
       <c r="E87" s="2">
         <v>43106</v>
       </c>
@@ -3184,6 +3402,9 @@
       </c>
       <c r="G87" s="2">
         <v>4021</v>
+      </c>
+      <c r="H87" s="2">
+        <v>14716</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>2</v>
@@ -3199,7 +3420,9 @@
       <c r="C88" s="2">
         <v>641376</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="2">
+        <v>822153</v>
+      </c>
       <c r="E88" s="2">
         <v>1055473</v>
       </c>
@@ -3208,6 +3431,9 @@
       </c>
       <c r="G88" s="2">
         <v>607083</v>
+      </c>
+      <c r="H88" s="2">
+        <v>774347</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>2</v>
@@ -3223,7 +3449,9 @@
       <c r="C89" s="2">
         <v>189947</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>211867</v>
+      </c>
       <c r="E89" s="2">
         <v>187054</v>
       </c>
@@ -3232,6 +3460,9 @@
       </c>
       <c r="G89" s="2">
         <v>124424</v>
+      </c>
+      <c r="H89" s="2">
+        <v>67899</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>2</v>
@@ -3247,7 +3478,9 @@
       <c r="C90" s="2">
         <v>251101</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="2">
+        <v>142511</v>
+      </c>
       <c r="E90" s="2">
         <v>90849</v>
       </c>
@@ -3256,6 +3489,9 @@
       </c>
       <c r="G90" s="2">
         <v>128847</v>
+      </c>
+      <c r="H90" s="2">
+        <v>85640</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>2</v>
@@ -3271,7 +3507,9 @@
       <c r="C91" s="2">
         <v>27511</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2">
+        <v>27535</v>
+      </c>
       <c r="E91" s="2">
         <v>27561</v>
       </c>
@@ -3280,6 +3518,9 @@
       </c>
       <c r="G91" s="2">
         <v>27671</v>
+      </c>
+      <c r="H91" s="2">
+        <v>27727</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>2</v>
@@ -3295,7 +3536,9 @@
       <c r="C92" s="2">
         <v>180552</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="2">
+        <v>189430</v>
+      </c>
       <c r="E92" s="2">
         <v>232288</v>
       </c>
@@ -3304,6 +3547,9 @@
       </c>
       <c r="G92" s="2">
         <v>192683</v>
+      </c>
+      <c r="H92" s="2">
+        <v>207543</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>2</v>
@@ -3323,7 +3569,7 @@
       </c>
       <c r="D93" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1407634</v>
       </c>
       <c r="E93" s="3">
         <f t="shared" si="43"/>
@@ -3339,7 +3585,7 @@
       </c>
       <c r="H93" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1177872</v>
       </c>
       <c r="I93" s="3">
         <f t="shared" si="43"/>
@@ -3387,7 +3633,9 @@
       <c r="C95" s="2">
         <v>576489</v>
       </c>
-      <c r="D95" s="2"/>
+      <c r="D95" s="2">
+        <v>569730</v>
+      </c>
       <c r="E95" s="2">
         <v>562960</v>
       </c>
@@ -3396,6 +3644,9 @@
       </c>
       <c r="G95" s="2">
         <v>549378</v>
+      </c>
+      <c r="H95" s="2">
+        <v>542564</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>2</v>
@@ -3417,6 +3668,7 @@
         <v>59149</v>
       </c>
       <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
       <c r="J96" s="1" t="s">
         <v>2</v>
       </c>
@@ -3431,7 +3683,9 @@
       <c r="C97" s="2">
         <v>161836</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2">
+        <v>161652</v>
+      </c>
       <c r="E97" s="2">
         <v>49089</v>
       </c>
@@ -3440,6 +3694,9 @@
       </c>
       <c r="G97" s="2">
         <v>145444</v>
+      </c>
+      <c r="H97" s="2">
+        <v>144855</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>2</v>
@@ -3459,7 +3716,7 @@
       </c>
       <c r="D98" s="3">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>731382</v>
       </c>
       <c r="E98" s="3">
         <f t="shared" si="44"/>
@@ -3474,8 +3731,8 @@
         <v>694822</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f>+SUM(H94:H97)</f>
+        <v>687419</v>
       </c>
       <c r="I98" s="3">
         <f t="shared" si="44"/>
@@ -3507,7 +3764,7 @@
       </c>
       <c r="D99" s="3">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>2139016</v>
       </c>
       <c r="E99" s="3">
         <f t="shared" si="45"/>
@@ -3523,7 +3780,7 @@
       </c>
       <c r="H99" s="3">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1865291</v>
       </c>
       <c r="I99" s="3">
         <f t="shared" si="45"/>
@@ -3556,7 +3813,9 @@
       <c r="C101" s="2">
         <v>142</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2">
+        <v>142</v>
+      </c>
       <c r="E101" s="2">
         <v>142</v>
       </c>
@@ -3566,7 +3825,9 @@
       <c r="G101" s="2">
         <v>143</v>
       </c>
-      <c r="H101" s="2"/>
+      <c r="H101" s="2">
+        <v>143</v>
+      </c>
       <c r="I101" s="2"/>
       <c r="J101" s="1" t="s">
         <v>2</v>
@@ -3584,15 +3845,19 @@
       <c r="C102" s="2">
         <v>380376</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2">
+        <v>383724</v>
+      </c>
       <c r="E102" s="2">
         <v>387210</v>
       </c>
       <c r="F102" s="2">
         <v>375155</v>
       </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="2">
+        <v>382009</v>
+      </c>
       <c r="I102" s="2"/>
       <c r="J102" s="1" t="s">
         <v>2</v>
@@ -3610,15 +3875,19 @@
       <c r="C103" s="2">
         <v>-10270</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2">
+        <v>-10266</v>
+      </c>
       <c r="E103" s="2">
         <v>-10261</v>
       </c>
       <c r="F103" s="2">
         <v>-631</v>
       </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="2">
+        <v>-572</v>
+      </c>
       <c r="I103" s="2"/>
       <c r="J103" s="1" t="s">
         <v>2</v>
@@ -3636,15 +3905,19 @@
       <c r="C104" s="2">
         <v>25482</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" s="2">
+        <v>28579</v>
+      </c>
       <c r="E104" s="2">
         <v>22865</v>
       </c>
       <c r="F104" s="2">
         <v>23411</v>
       </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="2">
+        <v>15376</v>
+      </c>
       <c r="I104" s="2"/>
       <c r="J104" s="1" t="s">
         <v>2</v>
@@ -3662,15 +3935,19 @@
       <c r="C105" s="2">
         <v>835256</v>
       </c>
-      <c r="D105" s="2"/>
+      <c r="D105" s="2">
+        <v>838556</v>
+      </c>
       <c r="E105" s="2">
         <v>882943</v>
       </c>
       <c r="F105" s="2">
         <v>881911</v>
       </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="2">
+        <v>932215</v>
+      </c>
       <c r="I105" s="2"/>
       <c r="J105" s="1" t="s">
         <v>2</v>
@@ -3692,7 +3969,7 @@
       </c>
       <c r="D106" s="3">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1240735</v>
       </c>
       <c r="E106" s="3">
         <f t="shared" si="46"/>
@@ -3702,13 +3979,13 @@
         <f>+SUM(F101:F105)</f>
         <v>1279988</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="8">
         <f t="shared" si="46"/>
         <v>143</v>
       </c>
       <c r="H106" s="3">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1329171</v>
       </c>
       <c r="I106" s="3">
         <f t="shared" si="46"/>
@@ -3736,15 +4013,19 @@
       <c r="C107" s="2">
         <v>207496</v>
       </c>
-      <c r="D107" s="2"/>
+      <c r="D107" s="2">
+        <v>208351</v>
+      </c>
       <c r="E107" s="2">
         <v>233488</v>
       </c>
       <c r="F107" s="2">
         <v>195662</v>
       </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="2">
+        <v>193837</v>
+      </c>
       <c r="I107" s="2"/>
       <c r="J107" s="1" t="s">
         <v>2</v>
@@ -3766,7 +4047,7 @@
       </c>
       <c r="D108" s="3">
         <f t="shared" ref="D108:L108" si="47">+D106+D107</f>
-        <v>0</v>
+        <v>1449086</v>
       </c>
       <c r="E108" s="3">
         <f t="shared" si="47"/>
@@ -3782,7 +4063,7 @@
       </c>
       <c r="H108" s="3">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1523008</v>
       </c>
       <c r="I108" s="3">
         <f t="shared" si="47"/>
@@ -3814,7 +4095,7 @@
       </c>
       <c r="D109" s="3">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>3588102</v>
       </c>
       <c r="E109" s="3">
         <f t="shared" si="48"/>
@@ -3830,7 +4111,7 @@
       </c>
       <c r="H109" s="3">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>3388299</v>
       </c>
       <c r="I109" s="3">
         <f t="shared" si="48"/>
@@ -3926,7 +4207,9 @@
       <c r="C113" s="2">
         <v>707980</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="2">
+        <v>718290</v>
+      </c>
       <c r="E113" s="2">
         <v>886725</v>
       </c>
@@ -3935,6 +4218,9 @@
       </c>
       <c r="G113" s="2">
         <v>452314</v>
+      </c>
+      <c r="H113" s="2">
+        <v>648808</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>2</v>
@@ -3950,7 +4236,9 @@
       <c r="C114" s="2">
         <v>19564</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2">
+        <v>18939</v>
+      </c>
       <c r="E114" s="2">
         <v>21705</v>
       </c>
@@ -3959,6 +4247,9 @@
       </c>
       <c r="G114" s="2">
         <v>14085</v>
+      </c>
+      <c r="H114" s="2">
+        <v>13688</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>2</v>
@@ -3974,7 +4265,9 @@
       <c r="C115" s="2">
         <v>142978</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="2">
+        <v>94375</v>
+      </c>
       <c r="E115" s="2">
         <v>104349</v>
       </c>
@@ -3983,6 +4276,9 @@
       </c>
       <c r="G115" s="2">
         <v>108407</v>
+      </c>
+      <c r="H115" s="2">
+        <v>80577</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>2</v>
@@ -3998,7 +4294,9 @@
       <c r="C116" s="2">
         <v>120267</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2">
+        <v>153688</v>
+      </c>
       <c r="E116" s="2">
         <v>153921</v>
       </c>
@@ -4007,6 +4305,9 @@
       </c>
       <c r="G116" s="2">
         <v>111734</v>
+      </c>
+      <c r="H116" s="2">
+        <v>141266</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>2</v>
@@ -4026,7 +4327,7 @@
       </c>
       <c r="D117" s="3">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>985292</v>
       </c>
       <c r="E117" s="3">
         <f t="shared" si="50"/>
@@ -4042,7 +4343,7 @@
       </c>
       <c r="H117" s="3">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>884339</v>
       </c>
       <c r="I117" s="3">
         <f t="shared" ref="I117" si="51">+SUM(I113:I116)</f>
@@ -4075,7 +4376,9 @@
       <c r="C120" s="2">
         <v>31838</v>
       </c>
-      <c r="D120" s="2"/>
+      <c r="D120" s="2">
+        <v>30872</v>
+      </c>
       <c r="E120" s="2">
         <v>30912</v>
       </c>
@@ -4085,7 +4388,9 @@
       <c r="G120" s="2">
         <v>31008</v>
       </c>
-      <c r="H120" s="2"/>
+      <c r="H120" s="2">
+        <v>30984</v>
+      </c>
       <c r="I120" s="2"/>
       <c r="J120" s="1" t="s">
         <v>2</v>
@@ -4101,7 +4406,9 @@
       <c r="C121" s="2">
         <v>81470</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2">
+        <v>79829</v>
+      </c>
       <c r="E121" s="2">
         <v>82438</v>
       </c>
@@ -4111,7 +4418,9 @@
       <c r="G121" s="2">
         <v>84019</v>
       </c>
-      <c r="H121" s="2"/>
+      <c r="H121" s="2">
+        <v>86206</v>
+      </c>
       <c r="I121" s="2"/>
       <c r="J121" s="1" t="s">
         <v>2</v>
@@ -4127,7 +4436,9 @@
       <c r="C122" s="2">
         <v>349773</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" s="2">
+        <v>360234</v>
+      </c>
       <c r="E122" s="2">
         <v>365744</v>
       </c>
@@ -4137,7 +4448,9 @@
       <c r="G122" s="2">
         <v>370877</v>
       </c>
-      <c r="H122" s="2"/>
+      <c r="H122" s="2">
+        <v>379681</v>
+      </c>
       <c r="I122" s="2"/>
       <c r="J122" s="1" t="s">
         <v>2</v>
@@ -4153,7 +4466,9 @@
       <c r="C123" s="2">
         <v>891368</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123" s="2">
+        <v>916552</v>
+      </c>
       <c r="E123" s="2">
         <v>951544</v>
       </c>
@@ -4163,7 +4478,9 @@
       <c r="G123" s="2">
         <v>977948</v>
       </c>
-      <c r="H123" s="2"/>
+      <c r="H123" s="2">
+        <v>1004315</v>
+      </c>
       <c r="I123" s="2"/>
       <c r="J123" s="1" t="s">
         <v>2</v>
@@ -4179,7 +4496,9 @@
       <c r="C124" s="2">
         <v>56578</v>
       </c>
-      <c r="D124" s="2"/>
+      <c r="D124" s="2">
+        <v>44420</v>
+      </c>
       <c r="E124" s="2">
         <v>36541</v>
       </c>
@@ -4189,7 +4508,9 @@
       <c r="G124" s="2">
         <v>48771</v>
       </c>
-      <c r="H124" s="2"/>
+      <c r="H124" s="2">
+        <v>47656</v>
+      </c>
       <c r="I124" s="2"/>
       <c r="J124" s="1" t="s">
         <v>2</v>
@@ -4205,7 +4526,9 @@
       <c r="C125" s="2">
         <v>747586</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2">
+        <v>751719</v>
+      </c>
       <c r="E125" s="2">
         <v>773814</v>
       </c>
@@ -4215,7 +4538,9 @@
       <c r="G125" s="2">
         <v>818487</v>
       </c>
-      <c r="H125" s="2"/>
+      <c r="H125" s="2">
+        <v>838891</v>
+      </c>
       <c r="I125" s="2"/>
       <c r="J125" s="1" t="s">
         <v>2</v>
@@ -4235,7 +4560,7 @@
       </c>
       <c r="D126" s="3">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>680188</v>
       </c>
       <c r="E126" s="3">
         <f t="shared" si="52"/>
@@ -4251,7 +4576,7 @@
       </c>
       <c r="H126" s="3">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>709951</v>
       </c>
       <c r="I126" s="3">
         <f t="shared" ref="I126" si="53">+SUM(I120:I124)-I125</f>
